--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="321" count="321">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="322" count="322">
+  <x:si>
+    <x:t>donorid</x:t>
+  </x:si>
   <x:si>
     <x:t>name</x:t>
   </x:si>
@@ -1339,1292 +1342,1295 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:2">
+    <x:row r="1" spans="1:3">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:2">
-      <x:c r="A2" s="0" t="s">
+      <x:c r="C1" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
+    </x:row>
+    <x:row r="2" spans="1:3">
       <x:c r="B2" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="3" spans="1:2">
-      <x:c r="A3" s="0" t="s">
+      <x:c r="C2" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
+    </x:row>
+    <x:row r="3" spans="1:3">
       <x:c r="B3" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
-    </x:row>
-    <x:row r="4" spans="1:2">
-      <x:c r="A4" s="0" t="s">
+      <x:c r="C3" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
+    </x:row>
+    <x:row r="4" spans="1:3">
       <x:c r="B4" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
-    </x:row>
-    <x:row r="5" spans="1:2">
-      <x:c r="A5" s="0" t="s">
+      <x:c r="C4" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
+    </x:row>
+    <x:row r="5" spans="1:3">
       <x:c r="B5" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-    </x:row>
-    <x:row r="6" spans="1:2">
-      <x:c r="A6" s="0" t="s">
+      <x:c r="C5" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
+    </x:row>
+    <x:row r="6" spans="1:3">
       <x:c r="B6" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
-    </x:row>
-    <x:row r="7" spans="1:2">
-      <x:c r="A7" s="0" t="s">
+      <x:c r="C6" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
+    </x:row>
+    <x:row r="7" spans="1:3">
       <x:c r="B7" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-    </x:row>
-    <x:row r="8" spans="1:2">
-      <x:c r="A8" s="0" t="s">
+      <x:c r="C7" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
+    </x:row>
+    <x:row r="8" spans="1:3">
       <x:c r="B8" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
-    </x:row>
-    <x:row r="9" spans="1:2">
-      <x:c r="A9" s="0" t="s">
+      <x:c r="C8" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
+    </x:row>
+    <x:row r="9" spans="1:3">
       <x:c r="B9" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-    </x:row>
-    <x:row r="10" spans="1:2">
-      <x:c r="A10" s="0" t="s">
+      <x:c r="C9" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
+    </x:row>
+    <x:row r="10" spans="1:3">
       <x:c r="B10" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-    </x:row>
-    <x:row r="11" spans="1:2">
-      <x:c r="A11" s="0" t="s">
+      <x:c r="C10" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
+    </x:row>
+    <x:row r="11" spans="1:3">
       <x:c r="B11" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-    </x:row>
-    <x:row r="12" spans="1:2">
-      <x:c r="A12" s="0" t="s">
+      <x:c r="C11" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
+    </x:row>
+    <x:row r="12" spans="1:3">
       <x:c r="B12" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-    </x:row>
-    <x:row r="13" spans="1:2">
-      <x:c r="A13" s="0" t="s">
+      <x:c r="C12" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
+    </x:row>
+    <x:row r="13" spans="1:3">
       <x:c r="B13" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-    </x:row>
-    <x:row r="14" spans="1:2">
-      <x:c r="A14" s="0" t="s">
+      <x:c r="C13" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
+    </x:row>
+    <x:row r="14" spans="1:3">
       <x:c r="B14" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-    </x:row>
-    <x:row r="15" spans="1:2">
-      <x:c r="A15" s="0" t="s">
+      <x:c r="C14" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
+    </x:row>
+    <x:row r="15" spans="1:3">
       <x:c r="B15" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-    </x:row>
-    <x:row r="16" spans="1:2">
-      <x:c r="A16" s="0" t="s">
+      <x:c r="C15" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
+    </x:row>
+    <x:row r="16" spans="1:3">
       <x:c r="B16" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
-    </x:row>
-    <x:row r="17" spans="1:2">
-      <x:c r="A17" s="0" t="s">
+      <x:c r="C16" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
+    </x:row>
+    <x:row r="17" spans="1:3">
       <x:c r="B17" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
-    </x:row>
-    <x:row r="18" spans="1:2">
-      <x:c r="A18" s="0" t="s">
+      <x:c r="C17" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
+    </x:row>
+    <x:row r="18" spans="1:3">
       <x:c r="B18" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
-    </x:row>
-    <x:row r="19" spans="1:2">
-      <x:c r="A19" s="0" t="s">
+      <x:c r="C18" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
+    </x:row>
+    <x:row r="19" spans="1:3">
       <x:c r="B19" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
-    </x:row>
-    <x:row r="20" spans="1:2">
-      <x:c r="A20" s="0" t="s">
+      <x:c r="C19" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
+    </x:row>
+    <x:row r="20" spans="1:3">
       <x:c r="B20" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
-    </x:row>
-    <x:row r="21" spans="1:2">
-      <x:c r="A21" s="0" t="s">
+      <x:c r="C20" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
+    </x:row>
+    <x:row r="21" spans="1:3">
       <x:c r="B21" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
-    </x:row>
-    <x:row r="22" spans="1:2">
-      <x:c r="A22" s="0" t="s">
+      <x:c r="C21" s="0" t="s">
         <x:v>42</x:v>
       </x:c>
+    </x:row>
+    <x:row r="22" spans="1:3">
       <x:c r="B22" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
-    </x:row>
-    <x:row r="23" spans="1:2">
-      <x:c r="A23" s="0" t="s">
+      <x:c r="C22" s="0" t="s">
         <x:v>44</x:v>
       </x:c>
+    </x:row>
+    <x:row r="23" spans="1:3">
       <x:c r="B23" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
-    </x:row>
-    <x:row r="24" spans="1:2">
-      <x:c r="A24" s="0" t="s">
+      <x:c r="C23" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
+    </x:row>
+    <x:row r="24" spans="1:3">
       <x:c r="B24" s="0" t="s">
         <x:v>47</x:v>
       </x:c>
-    </x:row>
-    <x:row r="25" spans="1:2">
-      <x:c r="A25" s="0" t="s">
+      <x:c r="C24" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
+    </x:row>
+    <x:row r="25" spans="1:3">
       <x:c r="B25" s="0" t="s">
         <x:v>49</x:v>
       </x:c>
-    </x:row>
-    <x:row r="26" spans="1:2">
-      <x:c r="A26" s="0" t="s">
+      <x:c r="C25" s="0" t="s">
         <x:v>50</x:v>
       </x:c>
+    </x:row>
+    <x:row r="26" spans="1:3">
       <x:c r="B26" s="0" t="s">
         <x:v>51</x:v>
       </x:c>
-    </x:row>
-    <x:row r="27" spans="1:2">
-      <x:c r="A27" s="0" t="s">
+      <x:c r="C26" s="0" t="s">
         <x:v>52</x:v>
       </x:c>
+    </x:row>
+    <x:row r="27" spans="1:3">
       <x:c r="B27" s="0" t="s">
         <x:v>53</x:v>
       </x:c>
-    </x:row>
-    <x:row r="28" spans="1:2">
-      <x:c r="A28" s="0" t="s">
+      <x:c r="C27" s="0" t="s">
         <x:v>54</x:v>
       </x:c>
+    </x:row>
+    <x:row r="28" spans="1:3">
       <x:c r="B28" s="0" t="s">
         <x:v>55</x:v>
       </x:c>
-    </x:row>
-    <x:row r="29" spans="1:2">
-      <x:c r="A29" s="0" t="s">
+      <x:c r="C28" s="0" t="s">
         <x:v>56</x:v>
       </x:c>
+    </x:row>
+    <x:row r="29" spans="1:3">
       <x:c r="B29" s="0" t="s">
         <x:v>57</x:v>
       </x:c>
-    </x:row>
-    <x:row r="30" spans="1:2">
-      <x:c r="A30" s="0" t="s">
+      <x:c r="C29" s="0" t="s">
         <x:v>58</x:v>
       </x:c>
+    </x:row>
+    <x:row r="30" spans="1:3">
       <x:c r="B30" s="0" t="s">
         <x:v>59</x:v>
       </x:c>
-    </x:row>
-    <x:row r="31" spans="1:2">
-      <x:c r="A31" s="0" t="s">
+      <x:c r="C30" s="0" t="s">
         <x:v>60</x:v>
       </x:c>
+    </x:row>
+    <x:row r="31" spans="1:3">
       <x:c r="B31" s="0" t="s">
         <x:v>61</x:v>
       </x:c>
-    </x:row>
-    <x:row r="32" spans="1:2">
-      <x:c r="A32" s="0" t="s">
+      <x:c r="C31" s="0" t="s">
         <x:v>62</x:v>
       </x:c>
+    </x:row>
+    <x:row r="32" spans="1:3">
       <x:c r="B32" s="0" t="s">
         <x:v>63</x:v>
       </x:c>
-    </x:row>
-    <x:row r="33" spans="1:2">
-      <x:c r="A33" s="0" t="s">
+      <x:c r="C32" s="0" t="s">
         <x:v>64</x:v>
       </x:c>
+    </x:row>
+    <x:row r="33" spans="1:3">
       <x:c r="B33" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
-    </x:row>
-    <x:row r="34" spans="1:2">
-      <x:c r="A34" s="0" t="s">
+      <x:c r="C33" s="0" t="s">
         <x:v>66</x:v>
       </x:c>
+    </x:row>
+    <x:row r="34" spans="1:3">
       <x:c r="B34" s="0" t="s">
         <x:v>67</x:v>
       </x:c>
-    </x:row>
-    <x:row r="35" spans="1:2">
-      <x:c r="A35" s="0" t="s">
+      <x:c r="C34" s="0" t="s">
         <x:v>68</x:v>
       </x:c>
+    </x:row>
+    <x:row r="35" spans="1:3">
       <x:c r="B35" s="0" t="s">
         <x:v>69</x:v>
       </x:c>
-    </x:row>
-    <x:row r="36" spans="1:2">
-      <x:c r="A36" s="0" t="s">
+      <x:c r="C35" s="0" t="s">
         <x:v>70</x:v>
       </x:c>
+    </x:row>
+    <x:row r="36" spans="1:3">
       <x:c r="B36" s="0" t="s">
         <x:v>71</x:v>
       </x:c>
-    </x:row>
-    <x:row r="37" spans="1:2">
-      <x:c r="A37" s="0" t="s">
+      <x:c r="C36" s="0" t="s">
         <x:v>72</x:v>
       </x:c>
+    </x:row>
+    <x:row r="37" spans="1:3">
       <x:c r="B37" s="0" t="s">
         <x:v>73</x:v>
       </x:c>
-    </x:row>
-    <x:row r="38" spans="1:2">
-      <x:c r="A38" s="0" t="s">
+      <x:c r="C37" s="0" t="s">
         <x:v>74</x:v>
       </x:c>
+    </x:row>
+    <x:row r="38" spans="1:3">
       <x:c r="B38" s="0" t="s">
         <x:v>75</x:v>
       </x:c>
-    </x:row>
-    <x:row r="39" spans="1:2">
-      <x:c r="A39" s="0" t="s">
+      <x:c r="C38" s="0" t="s">
         <x:v>76</x:v>
       </x:c>
+    </x:row>
+    <x:row r="39" spans="1:3">
       <x:c r="B39" s="0" t="s">
         <x:v>77</x:v>
       </x:c>
-    </x:row>
-    <x:row r="40" spans="1:2">
-      <x:c r="A40" s="0" t="s">
+      <x:c r="C39" s="0" t="s">
         <x:v>78</x:v>
       </x:c>
+    </x:row>
+    <x:row r="40" spans="1:3">
       <x:c r="B40" s="0" t="s">
         <x:v>79</x:v>
       </x:c>
-    </x:row>
-    <x:row r="41" spans="1:2">
-      <x:c r="A41" s="0" t="s">
+      <x:c r="C40" s="0" t="s">
         <x:v>80</x:v>
       </x:c>
+    </x:row>
+    <x:row r="41" spans="1:3">
       <x:c r="B41" s="0" t="s">
         <x:v>81</x:v>
       </x:c>
-    </x:row>
-    <x:row r="42" spans="1:2">
-      <x:c r="A42" s="0" t="s">
+      <x:c r="C41" s="0" t="s">
         <x:v>82</x:v>
       </x:c>
+    </x:row>
+    <x:row r="42" spans="1:3">
       <x:c r="B42" s="0" t="s">
         <x:v>83</x:v>
       </x:c>
-    </x:row>
-    <x:row r="43" spans="1:2">
-      <x:c r="A43" s="0" t="s">
+      <x:c r="C42" s="0" t="s">
         <x:v>84</x:v>
       </x:c>
+    </x:row>
+    <x:row r="43" spans="1:3">
       <x:c r="B43" s="0" t="s">
         <x:v>85</x:v>
       </x:c>
-    </x:row>
-    <x:row r="44" spans="1:2">
-      <x:c r="A44" s="0" t="s">
+      <x:c r="C43" s="0" t="s">
         <x:v>86</x:v>
       </x:c>
+    </x:row>
+    <x:row r="44" spans="1:3">
       <x:c r="B44" s="0" t="s">
         <x:v>87</x:v>
       </x:c>
-    </x:row>
-    <x:row r="45" spans="1:2">
-      <x:c r="A45" s="0" t="s">
+      <x:c r="C44" s="0" t="s">
         <x:v>88</x:v>
       </x:c>
+    </x:row>
+    <x:row r="45" spans="1:3">
       <x:c r="B45" s="0" t="s">
         <x:v>89</x:v>
       </x:c>
-    </x:row>
-    <x:row r="46" spans="1:2">
-      <x:c r="A46" s="0" t="s">
+      <x:c r="C45" s="0" t="s">
         <x:v>90</x:v>
       </x:c>
+    </x:row>
+    <x:row r="46" spans="1:3">
       <x:c r="B46" s="0" t="s">
         <x:v>91</x:v>
       </x:c>
-    </x:row>
-    <x:row r="47" spans="1:2">
-      <x:c r="A47" s="0" t="s">
+      <x:c r="C46" s="0" t="s">
         <x:v>92</x:v>
       </x:c>
+    </x:row>
+    <x:row r="47" spans="1:3">
       <x:c r="B47" s="0" t="s">
         <x:v>93</x:v>
       </x:c>
-    </x:row>
-    <x:row r="48" spans="1:2">
-      <x:c r="A48" s="0" t="s">
+      <x:c r="C47" s="0" t="s">
         <x:v>94</x:v>
       </x:c>
+    </x:row>
+    <x:row r="48" spans="1:3">
       <x:c r="B48" s="0" t="s">
         <x:v>95</x:v>
       </x:c>
-    </x:row>
-    <x:row r="49" spans="1:2">
-      <x:c r="A49" s="0" t="s">
+      <x:c r="C48" s="0" t="s">
         <x:v>96</x:v>
       </x:c>
+    </x:row>
+    <x:row r="49" spans="1:3">
       <x:c r="B49" s="0" t="s">
         <x:v>97</x:v>
       </x:c>
-    </x:row>
-    <x:row r="50" spans="1:2">
-      <x:c r="A50" s="0" t="s">
+      <x:c r="C49" s="0" t="s">
         <x:v>98</x:v>
       </x:c>
+    </x:row>
+    <x:row r="50" spans="1:3">
       <x:c r="B50" s="0" t="s">
         <x:v>99</x:v>
       </x:c>
-    </x:row>
-    <x:row r="51" spans="1:2">
-      <x:c r="A51" s="0" t="s">
+      <x:c r="C50" s="0" t="s">
         <x:v>100</x:v>
       </x:c>
+    </x:row>
+    <x:row r="51" spans="1:3">
       <x:c r="B51" s="0" t="s">
         <x:v>101</x:v>
       </x:c>
-    </x:row>
-    <x:row r="52" spans="1:2">
-      <x:c r="A52" s="0" t="s">
+      <x:c r="C51" s="0" t="s">
         <x:v>102</x:v>
       </x:c>
+    </x:row>
+    <x:row r="52" spans="1:3">
       <x:c r="B52" s="0" t="s">
         <x:v>103</x:v>
       </x:c>
-    </x:row>
-    <x:row r="53" spans="1:2">
-      <x:c r="A53" s="0" t="s">
+      <x:c r="C52" s="0" t="s">
         <x:v>104</x:v>
       </x:c>
+    </x:row>
+    <x:row r="53" spans="1:3">
       <x:c r="B53" s="0" t="s">
         <x:v>105</x:v>
       </x:c>
-    </x:row>
-    <x:row r="54" spans="1:2">
-      <x:c r="A54" s="0" t="s">
+      <x:c r="C53" s="0" t="s">
         <x:v>106</x:v>
       </x:c>
+    </x:row>
+    <x:row r="54" spans="1:3">
       <x:c r="B54" s="0" t="s">
         <x:v>107</x:v>
       </x:c>
-    </x:row>
-    <x:row r="55" spans="1:2">
-      <x:c r="A55" s="0" t="s">
+      <x:c r="C54" s="0" t="s">
         <x:v>108</x:v>
       </x:c>
+    </x:row>
+    <x:row r="55" spans="1:3">
       <x:c r="B55" s="0" t="s">
         <x:v>109</x:v>
       </x:c>
-    </x:row>
-    <x:row r="56" spans="1:2">
-      <x:c r="A56" s="0" t="s">
+      <x:c r="C55" s="0" t="s">
         <x:v>110</x:v>
       </x:c>
+    </x:row>
+    <x:row r="56" spans="1:3">
       <x:c r="B56" s="0" t="s">
         <x:v>111</x:v>
       </x:c>
-    </x:row>
-    <x:row r="57" spans="1:2">
-      <x:c r="A57" s="0" t="s">
+      <x:c r="C56" s="0" t="s">
         <x:v>112</x:v>
       </x:c>
+    </x:row>
+    <x:row r="57" spans="1:3">
       <x:c r="B57" s="0" t="s">
         <x:v>113</x:v>
       </x:c>
-    </x:row>
-    <x:row r="58" spans="1:2">
-      <x:c r="A58" s="0" t="s">
+      <x:c r="C57" s="0" t="s">
         <x:v>114</x:v>
       </x:c>
+    </x:row>
+    <x:row r="58" spans="1:3">
       <x:c r="B58" s="0" t="s">
         <x:v>115</x:v>
       </x:c>
-    </x:row>
-    <x:row r="59" spans="1:2">
-      <x:c r="A59" s="0" t="s">
+      <x:c r="C58" s="0" t="s">
         <x:v>116</x:v>
       </x:c>
+    </x:row>
+    <x:row r="59" spans="1:3">
       <x:c r="B59" s="0" t="s">
         <x:v>117</x:v>
       </x:c>
-    </x:row>
-    <x:row r="60" spans="1:2">
-      <x:c r="A60" s="0" t="s">
+      <x:c r="C59" s="0" t="s">
         <x:v>118</x:v>
       </x:c>
+    </x:row>
+    <x:row r="60" spans="1:3">
       <x:c r="B60" s="0" t="s">
         <x:v>119</x:v>
       </x:c>
-    </x:row>
-    <x:row r="61" spans="1:2">
-      <x:c r="A61" s="0" t="s">
+      <x:c r="C60" s="0" t="s">
         <x:v>120</x:v>
       </x:c>
+    </x:row>
+    <x:row r="61" spans="1:3">
       <x:c r="B61" s="0" t="s">
         <x:v>121</x:v>
       </x:c>
-    </x:row>
-    <x:row r="62" spans="1:2">
-      <x:c r="A62" s="0" t="s">
+      <x:c r="C61" s="0" t="s">
         <x:v>122</x:v>
       </x:c>
+    </x:row>
+    <x:row r="62" spans="1:3">
       <x:c r="B62" s="0" t="s">
         <x:v>123</x:v>
       </x:c>
-    </x:row>
-    <x:row r="63" spans="1:2">
-      <x:c r="A63" s="0" t="s">
+      <x:c r="C62" s="0" t="s">
         <x:v>124</x:v>
       </x:c>
+    </x:row>
+    <x:row r="63" spans="1:3">
       <x:c r="B63" s="0" t="s">
         <x:v>125</x:v>
       </x:c>
-    </x:row>
-    <x:row r="64" spans="1:2">
-      <x:c r="A64" s="0" t="s">
+      <x:c r="C63" s="0" t="s">
         <x:v>126</x:v>
       </x:c>
+    </x:row>
+    <x:row r="64" spans="1:3">
       <x:c r="B64" s="0" t="s">
         <x:v>127</x:v>
       </x:c>
-    </x:row>
-    <x:row r="65" spans="1:2">
-      <x:c r="A65" s="0" t="s">
+      <x:c r="C64" s="0" t="s">
         <x:v>128</x:v>
       </x:c>
+    </x:row>
+    <x:row r="65" spans="1:3">
       <x:c r="B65" s="0" t="s">
         <x:v>129</x:v>
       </x:c>
-    </x:row>
-    <x:row r="66" spans="1:2">
-      <x:c r="A66" s="0" t="s">
+      <x:c r="C65" s="0" t="s">
         <x:v>130</x:v>
       </x:c>
+    </x:row>
+    <x:row r="66" spans="1:3">
       <x:c r="B66" s="0" t="s">
         <x:v>131</x:v>
       </x:c>
-    </x:row>
-    <x:row r="67" spans="1:2">
-      <x:c r="A67" s="0" t="s">
+      <x:c r="C66" s="0" t="s">
         <x:v>132</x:v>
       </x:c>
+    </x:row>
+    <x:row r="67" spans="1:3">
       <x:c r="B67" s="0" t="s">
         <x:v>133</x:v>
       </x:c>
-    </x:row>
-    <x:row r="68" spans="1:2">
-      <x:c r="A68" s="0" t="s">
+      <x:c r="C67" s="0" t="s">
         <x:v>134</x:v>
       </x:c>
+    </x:row>
+    <x:row r="68" spans="1:3">
       <x:c r="B68" s="0" t="s">
         <x:v>135</x:v>
       </x:c>
-    </x:row>
-    <x:row r="69" spans="1:2">
-      <x:c r="A69" s="0" t="s">
+      <x:c r="C68" s="0" t="s">
         <x:v>136</x:v>
       </x:c>
+    </x:row>
+    <x:row r="69" spans="1:3">
       <x:c r="B69" s="0" t="s">
         <x:v>137</x:v>
       </x:c>
-    </x:row>
-    <x:row r="70" spans="1:2">
-      <x:c r="A70" s="0" t="s">
+      <x:c r="C69" s="0" t="s">
         <x:v>138</x:v>
       </x:c>
+    </x:row>
+    <x:row r="70" spans="1:3">
       <x:c r="B70" s="0" t="s">
         <x:v>139</x:v>
       </x:c>
-    </x:row>
-    <x:row r="71" spans="1:2">
-      <x:c r="A71" s="0" t="s">
+      <x:c r="C70" s="0" t="s">
         <x:v>140</x:v>
       </x:c>
+    </x:row>
+    <x:row r="71" spans="1:3">
       <x:c r="B71" s="0" t="s">
         <x:v>141</x:v>
       </x:c>
-    </x:row>
-    <x:row r="72" spans="1:2">
-      <x:c r="A72" s="0" t="s">
+      <x:c r="C71" s="0" t="s">
         <x:v>142</x:v>
       </x:c>
+    </x:row>
+    <x:row r="72" spans="1:3">
       <x:c r="B72" s="0" t="s">
         <x:v>143</x:v>
       </x:c>
-    </x:row>
-    <x:row r="73" spans="1:2">
-      <x:c r="A73" s="0" t="s">
+      <x:c r="C72" s="0" t="s">
         <x:v>144</x:v>
       </x:c>
+    </x:row>
+    <x:row r="73" spans="1:3">
       <x:c r="B73" s="0" t="s">
         <x:v>145</x:v>
       </x:c>
-    </x:row>
-    <x:row r="74" spans="1:2">
-      <x:c r="A74" s="0" t="s">
+      <x:c r="C73" s="0" t="s">
         <x:v>146</x:v>
       </x:c>
+    </x:row>
+    <x:row r="74" spans="1:3">
       <x:c r="B74" s="0" t="s">
         <x:v>147</x:v>
       </x:c>
-    </x:row>
-    <x:row r="75" spans="1:2">
-      <x:c r="A75" s="0" t="s">
+      <x:c r="C74" s="0" t="s">
         <x:v>148</x:v>
       </x:c>
+    </x:row>
+    <x:row r="75" spans="1:3">
       <x:c r="B75" s="0" t="s">
         <x:v>149</x:v>
       </x:c>
-    </x:row>
-    <x:row r="76" spans="1:2">
-      <x:c r="A76" s="0" t="s">
+      <x:c r="C75" s="0" t="s">
         <x:v>150</x:v>
       </x:c>
+    </x:row>
+    <x:row r="76" spans="1:3">
       <x:c r="B76" s="0" t="s">
         <x:v>151</x:v>
       </x:c>
-    </x:row>
-    <x:row r="77" spans="1:2">
-      <x:c r="A77" s="0" t="s">
+      <x:c r="C76" s="0" t="s">
         <x:v>152</x:v>
       </x:c>
+    </x:row>
+    <x:row r="77" spans="1:3">
       <x:c r="B77" s="0" t="s">
         <x:v>153</x:v>
       </x:c>
-    </x:row>
-    <x:row r="78" spans="1:2">
-      <x:c r="A78" s="0" t="s">
+      <x:c r="C77" s="0" t="s">
         <x:v>154</x:v>
       </x:c>
+    </x:row>
+    <x:row r="78" spans="1:3">
       <x:c r="B78" s="0" t="s">
         <x:v>155</x:v>
       </x:c>
-    </x:row>
-    <x:row r="79" spans="1:2">
-      <x:c r="A79" s="0" t="s">
+      <x:c r="C78" s="0" t="s">
         <x:v>156</x:v>
       </x:c>
+    </x:row>
+    <x:row r="79" spans="1:3">
       <x:c r="B79" s="0" t="s">
         <x:v>157</x:v>
       </x:c>
-    </x:row>
-    <x:row r="80" spans="1:2">
-      <x:c r="A80" s="0" t="s">
+      <x:c r="C79" s="0" t="s">
         <x:v>158</x:v>
       </x:c>
+    </x:row>
+    <x:row r="80" spans="1:3">
       <x:c r="B80" s="0" t="s">
         <x:v>159</x:v>
       </x:c>
-    </x:row>
-    <x:row r="81" spans="1:2">
-      <x:c r="A81" s="0" t="s">
+      <x:c r="C80" s="0" t="s">
         <x:v>160</x:v>
       </x:c>
+    </x:row>
+    <x:row r="81" spans="1:3">
       <x:c r="B81" s="0" t="s">
         <x:v>161</x:v>
       </x:c>
-    </x:row>
-    <x:row r="82" spans="1:2">
-      <x:c r="A82" s="0" t="s">
+      <x:c r="C81" s="0" t="s">
         <x:v>162</x:v>
       </x:c>
+    </x:row>
+    <x:row r="82" spans="1:3">
       <x:c r="B82" s="0" t="s">
         <x:v>163</x:v>
       </x:c>
-    </x:row>
-    <x:row r="83" spans="1:2">
-      <x:c r="A83" s="0" t="s">
+      <x:c r="C82" s="0" t="s">
         <x:v>164</x:v>
       </x:c>
+    </x:row>
+    <x:row r="83" spans="1:3">
       <x:c r="B83" s="0" t="s">
         <x:v>165</x:v>
       </x:c>
-    </x:row>
-    <x:row r="84" spans="1:2">
-      <x:c r="A84" s="0" t="s">
+      <x:c r="C83" s="0" t="s">
         <x:v>166</x:v>
       </x:c>
+    </x:row>
+    <x:row r="84" spans="1:3">
       <x:c r="B84" s="0" t="s">
         <x:v>167</x:v>
       </x:c>
-    </x:row>
-    <x:row r="85" spans="1:2">
-      <x:c r="A85" s="0" t="s">
+      <x:c r="C84" s="0" t="s">
         <x:v>168</x:v>
       </x:c>
+    </x:row>
+    <x:row r="85" spans="1:3">
       <x:c r="B85" s="0" t="s">
         <x:v>169</x:v>
       </x:c>
-    </x:row>
-    <x:row r="86" spans="1:2">
-      <x:c r="A86" s="0" t="s">
+      <x:c r="C85" s="0" t="s">
         <x:v>170</x:v>
       </x:c>
+    </x:row>
+    <x:row r="86" spans="1:3">
       <x:c r="B86" s="0" t="s">
         <x:v>171</x:v>
       </x:c>
-    </x:row>
-    <x:row r="87" spans="1:2">
-      <x:c r="A87" s="0" t="s">
+      <x:c r="C86" s="0" t="s">
         <x:v>172</x:v>
       </x:c>
+    </x:row>
+    <x:row r="87" spans="1:3">
       <x:c r="B87" s="0" t="s">
         <x:v>173</x:v>
       </x:c>
-    </x:row>
-    <x:row r="88" spans="1:2">
-      <x:c r="A88" s="0" t="s">
+      <x:c r="C87" s="0" t="s">
         <x:v>174</x:v>
       </x:c>
+    </x:row>
+    <x:row r="88" spans="1:3">
       <x:c r="B88" s="0" t="s">
         <x:v>175</x:v>
       </x:c>
-    </x:row>
-    <x:row r="89" spans="1:2">
-      <x:c r="A89" s="0" t="s">
+      <x:c r="C88" s="0" t="s">
         <x:v>176</x:v>
       </x:c>
+    </x:row>
+    <x:row r="89" spans="1:3">
       <x:c r="B89" s="0" t="s">
         <x:v>177</x:v>
       </x:c>
-    </x:row>
-    <x:row r="90" spans="1:2">
-      <x:c r="A90" s="0" t="s">
+      <x:c r="C89" s="0" t="s">
         <x:v>178</x:v>
       </x:c>
+    </x:row>
+    <x:row r="90" spans="1:3">
       <x:c r="B90" s="0" t="s">
         <x:v>179</x:v>
       </x:c>
-    </x:row>
-    <x:row r="91" spans="1:2">
-      <x:c r="A91" s="0" t="s">
+      <x:c r="C90" s="0" t="s">
         <x:v>180</x:v>
       </x:c>
+    </x:row>
+    <x:row r="91" spans="1:3">
       <x:c r="B91" s="0" t="s">
         <x:v>181</x:v>
       </x:c>
-    </x:row>
-    <x:row r="92" spans="1:2">
-      <x:c r="A92" s="0" t="s">
+      <x:c r="C91" s="0" t="s">
         <x:v>182</x:v>
       </x:c>
+    </x:row>
+    <x:row r="92" spans="1:3">
       <x:c r="B92" s="0" t="s">
         <x:v>183</x:v>
       </x:c>
-    </x:row>
-    <x:row r="93" spans="1:2">
-      <x:c r="A93" s="0" t="s">
+      <x:c r="C92" s="0" t="s">
         <x:v>184</x:v>
       </x:c>
+    </x:row>
+    <x:row r="93" spans="1:3">
       <x:c r="B93" s="0" t="s">
         <x:v>185</x:v>
       </x:c>
-    </x:row>
-    <x:row r="94" spans="1:2">
-      <x:c r="A94" s="0" t="s">
+      <x:c r="C93" s="0" t="s">
         <x:v>186</x:v>
       </x:c>
+    </x:row>
+    <x:row r="94" spans="1:3">
       <x:c r="B94" s="0" t="s">
         <x:v>187</x:v>
       </x:c>
-    </x:row>
-    <x:row r="95" spans="1:2">
-      <x:c r="A95" s="0" t="s">
+      <x:c r="C94" s="0" t="s">
         <x:v>188</x:v>
       </x:c>
+    </x:row>
+    <x:row r="95" spans="1:3">
       <x:c r="B95" s="0" t="s">
         <x:v>189</x:v>
       </x:c>
-    </x:row>
-    <x:row r="96" spans="1:2">
-      <x:c r="A96" s="0" t="s">
+      <x:c r="C95" s="0" t="s">
         <x:v>190</x:v>
       </x:c>
+    </x:row>
+    <x:row r="96" spans="1:3">
       <x:c r="B96" s="0" t="s">
         <x:v>191</x:v>
       </x:c>
-    </x:row>
-    <x:row r="97" spans="1:2">
-      <x:c r="A97" s="0" t="s">
+      <x:c r="C96" s="0" t="s">
         <x:v>192</x:v>
       </x:c>
+    </x:row>
+    <x:row r="97" spans="1:3">
       <x:c r="B97" s="0" t="s">
         <x:v>193</x:v>
       </x:c>
-    </x:row>
-    <x:row r="98" spans="1:2">
-      <x:c r="A98" s="0" t="s">
+      <x:c r="C97" s="0" t="s">
         <x:v>194</x:v>
       </x:c>
+    </x:row>
+    <x:row r="98" spans="1:3">
       <x:c r="B98" s="0" t="s">
         <x:v>195</x:v>
       </x:c>
-    </x:row>
-    <x:row r="99" spans="1:2">
-      <x:c r="A99" s="0" t="s">
+      <x:c r="C98" s="0" t="s">
         <x:v>196</x:v>
       </x:c>
+    </x:row>
+    <x:row r="99" spans="1:3">
       <x:c r="B99" s="0" t="s">
         <x:v>197</x:v>
       </x:c>
-    </x:row>
-    <x:row r="100" spans="1:2">
-      <x:c r="A100" s="0" t="s">
+      <x:c r="C99" s="0" t="s">
         <x:v>198</x:v>
       </x:c>
+    </x:row>
+    <x:row r="100" spans="1:3">
       <x:c r="B100" s="0" t="s">
         <x:v>199</x:v>
       </x:c>
-    </x:row>
-    <x:row r="101" spans="1:2">
-      <x:c r="A101" s="0" t="s">
+      <x:c r="C100" s="0" t="s">
         <x:v>200</x:v>
       </x:c>
+    </x:row>
+    <x:row r="101" spans="1:3">
       <x:c r="B101" s="0" t="s">
         <x:v>201</x:v>
       </x:c>
-    </x:row>
-    <x:row r="102" spans="1:2">
-      <x:c r="A102" s="0" t="s">
+      <x:c r="C101" s="0" t="s">
         <x:v>202</x:v>
       </x:c>
+    </x:row>
+    <x:row r="102" spans="1:3">
       <x:c r="B102" s="0" t="s">
         <x:v>203</x:v>
       </x:c>
-    </x:row>
-    <x:row r="103" spans="1:2">
-      <x:c r="A103" s="0" t="s">
+      <x:c r="C102" s="0" t="s">
         <x:v>204</x:v>
       </x:c>
+    </x:row>
+    <x:row r="103" spans="1:3">
       <x:c r="B103" s="0" t="s">
         <x:v>205</x:v>
       </x:c>
-    </x:row>
-    <x:row r="104" spans="1:2">
-      <x:c r="A104" s="0" t="s">
+      <x:c r="C103" s="0" t="s">
         <x:v>206</x:v>
       </x:c>
+    </x:row>
+    <x:row r="104" spans="1:3">
       <x:c r="B104" s="0" t="s">
         <x:v>207</x:v>
       </x:c>
-    </x:row>
-    <x:row r="105" spans="1:2">
-      <x:c r="A105" s="0" t="s">
+      <x:c r="C104" s="0" t="s">
         <x:v>208</x:v>
       </x:c>
+    </x:row>
+    <x:row r="105" spans="1:3">
       <x:c r="B105" s="0" t="s">
         <x:v>209</x:v>
       </x:c>
-    </x:row>
-    <x:row r="106" spans="1:2">
-      <x:c r="A106" s="0" t="s">
+      <x:c r="C105" s="0" t="s">
         <x:v>210</x:v>
       </x:c>
+    </x:row>
+    <x:row r="106" spans="1:3">
       <x:c r="B106" s="0" t="s">
         <x:v>211</x:v>
       </x:c>
-    </x:row>
-    <x:row r="107" spans="1:2">
-      <x:c r="A107" s="0" t="s">
+      <x:c r="C106" s="0" t="s">
         <x:v>212</x:v>
       </x:c>
+    </x:row>
+    <x:row r="107" spans="1:3">
       <x:c r="B107" s="0" t="s">
         <x:v>213</x:v>
       </x:c>
-    </x:row>
-    <x:row r="108" spans="1:2">
-      <x:c r="A108" s="0" t="s">
+      <x:c r="C107" s="0" t="s">
         <x:v>214</x:v>
       </x:c>
+    </x:row>
+    <x:row r="108" spans="1:3">
       <x:c r="B108" s="0" t="s">
         <x:v>215</x:v>
       </x:c>
-    </x:row>
-    <x:row r="109" spans="1:2">
-      <x:c r="A109" s="0" t="s">
+      <x:c r="C108" s="0" t="s">
         <x:v>216</x:v>
       </x:c>
+    </x:row>
+    <x:row r="109" spans="1:3">
       <x:c r="B109" s="0" t="s">
         <x:v>217</x:v>
       </x:c>
-    </x:row>
-    <x:row r="110" spans="1:2">
-      <x:c r="A110" s="0" t="s">
+      <x:c r="C109" s="0" t="s">
         <x:v>218</x:v>
       </x:c>
+    </x:row>
+    <x:row r="110" spans="1:3">
       <x:c r="B110" s="0" t="s">
         <x:v>219</x:v>
       </x:c>
-    </x:row>
-    <x:row r="111" spans="1:2">
-      <x:c r="A111" s="0" t="s">
+      <x:c r="C110" s="0" t="s">
         <x:v>220</x:v>
       </x:c>
+    </x:row>
+    <x:row r="111" spans="1:3">
       <x:c r="B111" s="0" t="s">
         <x:v>221</x:v>
       </x:c>
-    </x:row>
-    <x:row r="112" spans="1:2">
-      <x:c r="A112" s="0" t="s">
+      <x:c r="C111" s="0" t="s">
         <x:v>222</x:v>
       </x:c>
+    </x:row>
+    <x:row r="112" spans="1:3">
       <x:c r="B112" s="0" t="s">
         <x:v>223</x:v>
       </x:c>
-    </x:row>
-    <x:row r="113" spans="1:2">
-      <x:c r="A113" s="0" t="s">
+      <x:c r="C112" s="0" t="s">
         <x:v>224</x:v>
       </x:c>
+    </x:row>
+    <x:row r="113" spans="1:3">
       <x:c r="B113" s="0" t="s">
         <x:v>225</x:v>
       </x:c>
-    </x:row>
-    <x:row r="114" spans="1:2">
-      <x:c r="A114" s="0" t="s">
+      <x:c r="C113" s="0" t="s">
         <x:v>226</x:v>
       </x:c>
+    </x:row>
+    <x:row r="114" spans="1:3">
       <x:c r="B114" s="0" t="s">
         <x:v>227</x:v>
       </x:c>
-    </x:row>
-    <x:row r="115" spans="1:2">
-      <x:c r="A115" s="0" t="s">
+      <x:c r="C114" s="0" t="s">
         <x:v>228</x:v>
       </x:c>
+    </x:row>
+    <x:row r="115" spans="1:3">
       <x:c r="B115" s="0" t="s">
         <x:v>229</x:v>
       </x:c>
-    </x:row>
-    <x:row r="116" spans="1:2">
-      <x:c r="A116" s="0" t="s">
+      <x:c r="C115" s="0" t="s">
         <x:v>230</x:v>
       </x:c>
+    </x:row>
+    <x:row r="116" spans="1:3">
       <x:c r="B116" s="0" t="s">
         <x:v>231</x:v>
       </x:c>
-    </x:row>
-    <x:row r="117" spans="1:2">
-      <x:c r="A117" s="0" t="s">
+      <x:c r="C116" s="0" t="s">
         <x:v>232</x:v>
       </x:c>
+    </x:row>
+    <x:row r="117" spans="1:3">
       <x:c r="B117" s="0" t="s">
         <x:v>233</x:v>
       </x:c>
-    </x:row>
-    <x:row r="118" spans="1:2">
-      <x:c r="A118" s="0" t="s">
+      <x:c r="C117" s="0" t="s">
         <x:v>234</x:v>
       </x:c>
+    </x:row>
+    <x:row r="118" spans="1:3">
       <x:c r="B118" s="0" t="s">
         <x:v>235</x:v>
       </x:c>
-    </x:row>
-    <x:row r="119" spans="1:2">
-      <x:c r="A119" s="0" t="s">
+      <x:c r="C118" s="0" t="s">
         <x:v>236</x:v>
       </x:c>
+    </x:row>
+    <x:row r="119" spans="1:3">
       <x:c r="B119" s="0" t="s">
         <x:v>237</x:v>
       </x:c>
-    </x:row>
-    <x:row r="120" spans="1:2">
-      <x:c r="A120" s="0" t="s">
+      <x:c r="C119" s="0" t="s">
         <x:v>238</x:v>
       </x:c>
+    </x:row>
+    <x:row r="120" spans="1:3">
       <x:c r="B120" s="0" t="s">
         <x:v>239</x:v>
       </x:c>
-    </x:row>
-    <x:row r="121" spans="1:2">
-      <x:c r="A121" s="0" t="s">
+      <x:c r="C120" s="0" t="s">
         <x:v>240</x:v>
       </x:c>
+    </x:row>
+    <x:row r="121" spans="1:3">
       <x:c r="B121" s="0" t="s">
         <x:v>241</x:v>
       </x:c>
-    </x:row>
-    <x:row r="122" spans="1:2">
-      <x:c r="A122" s="0" t="s">
+      <x:c r="C121" s="0" t="s">
         <x:v>242</x:v>
       </x:c>
+    </x:row>
+    <x:row r="122" spans="1:3">
       <x:c r="B122" s="0" t="s">
         <x:v>243</x:v>
       </x:c>
-    </x:row>
-    <x:row r="123" spans="1:2">
-      <x:c r="A123" s="0" t="s">
+      <x:c r="C122" s="0" t="s">
         <x:v>244</x:v>
       </x:c>
+    </x:row>
+    <x:row r="123" spans="1:3">
       <x:c r="B123" s="0" t="s">
         <x:v>245</x:v>
       </x:c>
-    </x:row>
-    <x:row r="124" spans="1:2">
-      <x:c r="A124" s="0" t="s">
+      <x:c r="C123" s="0" t="s">
         <x:v>246</x:v>
       </x:c>
+    </x:row>
+    <x:row r="124" spans="1:3">
       <x:c r="B124" s="0" t="s">
         <x:v>247</x:v>
       </x:c>
-    </x:row>
-    <x:row r="125" spans="1:2">
-      <x:c r="A125" s="0" t="s">
+      <x:c r="C124" s="0" t="s">
         <x:v>248</x:v>
       </x:c>
+    </x:row>
+    <x:row r="125" spans="1:3">
       <x:c r="B125" s="0" t="s">
         <x:v>249</x:v>
       </x:c>
-    </x:row>
-    <x:row r="126" spans="1:2">
-      <x:c r="A126" s="0" t="s">
+      <x:c r="C125" s="0" t="s">
         <x:v>250</x:v>
       </x:c>
+    </x:row>
+    <x:row r="126" spans="1:3">
       <x:c r="B126" s="0" t="s">
         <x:v>251</x:v>
       </x:c>
-    </x:row>
-    <x:row r="127" spans="1:2">
-      <x:c r="A127" s="0" t="s">
+      <x:c r="C126" s="0" t="s">
         <x:v>252</x:v>
       </x:c>
+    </x:row>
+    <x:row r="127" spans="1:3">
       <x:c r="B127" s="0" t="s">
         <x:v>253</x:v>
       </x:c>
-    </x:row>
-    <x:row r="128" spans="1:2">
-      <x:c r="A128" s="0" t="s">
+      <x:c r="C127" s="0" t="s">
         <x:v>254</x:v>
       </x:c>
+    </x:row>
+    <x:row r="128" spans="1:3">
       <x:c r="B128" s="0" t="s">
         <x:v>255</x:v>
       </x:c>
-    </x:row>
-    <x:row r="129" spans="1:2">
-      <x:c r="A129" s="0" t="s">
+      <x:c r="C128" s="0" t="s">
         <x:v>256</x:v>
       </x:c>
+    </x:row>
+    <x:row r="129" spans="1:3">
       <x:c r="B129" s="0" t="s">
         <x:v>257</x:v>
       </x:c>
-    </x:row>
-    <x:row r="130" spans="1:2">
-      <x:c r="A130" s="0" t="s">
+      <x:c r="C129" s="0" t="s">
         <x:v>258</x:v>
       </x:c>
+    </x:row>
+    <x:row r="130" spans="1:3">
       <x:c r="B130" s="0" t="s">
         <x:v>259</x:v>
       </x:c>
-    </x:row>
-    <x:row r="131" spans="1:2">
-      <x:c r="A131" s="0" t="s">
+      <x:c r="C130" s="0" t="s">
         <x:v>260</x:v>
       </x:c>
+    </x:row>
+    <x:row r="131" spans="1:3">
       <x:c r="B131" s="0" t="s">
         <x:v>261</x:v>
       </x:c>
-    </x:row>
-    <x:row r="132" spans="1:2">
-      <x:c r="A132" s="0" t="s">
+      <x:c r="C131" s="0" t="s">
         <x:v>262</x:v>
       </x:c>
+    </x:row>
+    <x:row r="132" spans="1:3">
       <x:c r="B132" s="0" t="s">
         <x:v>263</x:v>
       </x:c>
-    </x:row>
-    <x:row r="133" spans="1:2">
-      <x:c r="A133" s="0" t="s">
+      <x:c r="C132" s="0" t="s">
         <x:v>264</x:v>
       </x:c>
+    </x:row>
+    <x:row r="133" spans="1:3">
       <x:c r="B133" s="0" t="s">
         <x:v>265</x:v>
       </x:c>
-    </x:row>
-    <x:row r="134" spans="1:2">
-      <x:c r="A134" s="0" t="s">
+      <x:c r="C133" s="0" t="s">
         <x:v>266</x:v>
       </x:c>
+    </x:row>
+    <x:row r="134" spans="1:3">
       <x:c r="B134" s="0" t="s">
         <x:v>267</x:v>
       </x:c>
-    </x:row>
-    <x:row r="135" spans="1:2">
-      <x:c r="A135" s="0" t="s">
+      <x:c r="C134" s="0" t="s">
         <x:v>268</x:v>
       </x:c>
+    </x:row>
+    <x:row r="135" spans="1:3">
       <x:c r="B135" s="0" t="s">
         <x:v>269</x:v>
       </x:c>
-    </x:row>
-    <x:row r="136" spans="1:2">
-      <x:c r="A136" s="0" t="s">
+      <x:c r="C135" s="0" t="s">
         <x:v>270</x:v>
       </x:c>
+    </x:row>
+    <x:row r="136" spans="1:3">
       <x:c r="B136" s="0" t="s">
         <x:v>271</x:v>
       </x:c>
-    </x:row>
-    <x:row r="137" spans="1:2">
-      <x:c r="A137" s="0" t="s">
+      <x:c r="C136" s="0" t="s">
         <x:v>272</x:v>
       </x:c>
+    </x:row>
+    <x:row r="137" spans="1:3">
       <x:c r="B137" s="0" t="s">
         <x:v>273</x:v>
       </x:c>
-    </x:row>
-    <x:row r="138" spans="1:2">
-      <x:c r="A138" s="0" t="s">
+      <x:c r="C137" s="0" t="s">
         <x:v>274</x:v>
       </x:c>
+    </x:row>
+    <x:row r="138" spans="1:3">
       <x:c r="B138" s="0" t="s">
         <x:v>275</x:v>
       </x:c>
-    </x:row>
-    <x:row r="139" spans="1:2">
-      <x:c r="A139" s="0" t="s">
+      <x:c r="C138" s="0" t="s">
         <x:v>276</x:v>
       </x:c>
+    </x:row>
+    <x:row r="139" spans="1:3">
       <x:c r="B139" s="0" t="s">
         <x:v>277</x:v>
       </x:c>
-    </x:row>
-    <x:row r="140" spans="1:2">
-      <x:c r="A140" s="0" t="s">
+      <x:c r="C139" s="0" t="s">
         <x:v>278</x:v>
       </x:c>
+    </x:row>
+    <x:row r="140" spans="1:3">
       <x:c r="B140" s="0" t="s">
         <x:v>279</x:v>
       </x:c>
-    </x:row>
-    <x:row r="141" spans="1:2">
-      <x:c r="A141" s="0" t="s">
+      <x:c r="C140" s="0" t="s">
         <x:v>280</x:v>
       </x:c>
+    </x:row>
+    <x:row r="141" spans="1:3">
       <x:c r="B141" s="0" t="s">
         <x:v>281</x:v>
       </x:c>
-    </x:row>
-    <x:row r="142" spans="1:2">
-      <x:c r="A142" s="0" t="s">
+      <x:c r="C141" s="0" t="s">
         <x:v>282</x:v>
       </x:c>
+    </x:row>
+    <x:row r="142" spans="1:3">
       <x:c r="B142" s="0" t="s">
         <x:v>283</x:v>
       </x:c>
-    </x:row>
-    <x:row r="143" spans="1:2">
-      <x:c r="A143" s="0" t="s">
+      <x:c r="C142" s="0" t="s">
         <x:v>284</x:v>
       </x:c>
+    </x:row>
+    <x:row r="143" spans="1:3">
       <x:c r="B143" s="0" t="s">
         <x:v>285</x:v>
       </x:c>
-    </x:row>
-    <x:row r="144" spans="1:2">
-      <x:c r="A144" s="0" t="s">
+      <x:c r="C143" s="0" t="s">
         <x:v>286</x:v>
       </x:c>
+    </x:row>
+    <x:row r="144" spans="1:3">
       <x:c r="B144" s="0" t="s">
         <x:v>287</x:v>
       </x:c>
-    </x:row>
-    <x:row r="145" spans="1:2">
-      <x:c r="A145" s="0" t="s">
+      <x:c r="C144" s="0" t="s">
         <x:v>288</x:v>
       </x:c>
+    </x:row>
+    <x:row r="145" spans="1:3">
       <x:c r="B145" s="0" t="s">
         <x:v>289</x:v>
       </x:c>
-    </x:row>
-    <x:row r="146" spans="1:2">
-      <x:c r="A146" s="0" t="s">
+      <x:c r="C145" s="0" t="s">
         <x:v>290</x:v>
       </x:c>
+    </x:row>
+    <x:row r="146" spans="1:3">
       <x:c r="B146" s="0" t="s">
         <x:v>291</x:v>
       </x:c>
-    </x:row>
-    <x:row r="147" spans="1:2">
-      <x:c r="A147" s="0" t="s">
+      <x:c r="C146" s="0" t="s">
         <x:v>292</x:v>
       </x:c>
+    </x:row>
+    <x:row r="147" spans="1:3">
       <x:c r="B147" s="0" t="s">
         <x:v>293</x:v>
       </x:c>
-    </x:row>
-    <x:row r="148" spans="1:2">
-      <x:c r="A148" s="0" t="s">
+      <x:c r="C147" s="0" t="s">
         <x:v>294</x:v>
       </x:c>
+    </x:row>
+    <x:row r="148" spans="1:3">
       <x:c r="B148" s="0" t="s">
         <x:v>295</x:v>
       </x:c>
-    </x:row>
-    <x:row r="149" spans="1:2">
-      <x:c r="A149" s="0" t="s">
+      <x:c r="C148" s="0" t="s">
         <x:v>296</x:v>
       </x:c>
+    </x:row>
+    <x:row r="149" spans="1:3">
       <x:c r="B149" s="0" t="s">
         <x:v>297</x:v>
       </x:c>
-    </x:row>
-    <x:row r="150" spans="1:2">
-      <x:c r="A150" s="0" t="s">
+      <x:c r="C149" s="0" t="s">
         <x:v>298</x:v>
       </x:c>
+    </x:row>
+    <x:row r="150" spans="1:3">
       <x:c r="B150" s="0" t="s">
         <x:v>299</x:v>
       </x:c>
-    </x:row>
-    <x:row r="151" spans="1:2">
-      <x:c r="A151" s="0" t="s">
+      <x:c r="C150" s="0" t="s">
         <x:v>300</x:v>
       </x:c>
+    </x:row>
+    <x:row r="151" spans="1:3">
       <x:c r="B151" s="0" t="s">
         <x:v>301</x:v>
       </x:c>
-    </x:row>
-    <x:row r="152" spans="1:2">
-      <x:c r="A152" s="0" t="s">
+      <x:c r="C151" s="0" t="s">
         <x:v>302</x:v>
       </x:c>
+    </x:row>
+    <x:row r="152" spans="1:3">
       <x:c r="B152" s="0" t="s">
         <x:v>303</x:v>
       </x:c>
-    </x:row>
-    <x:row r="153" spans="1:2">
-      <x:c r="A153" s="0" t="s">
+      <x:c r="C152" s="0" t="s">
         <x:v>304</x:v>
       </x:c>
+    </x:row>
+    <x:row r="153" spans="1:3">
       <x:c r="B153" s="0" t="s">
         <x:v>305</x:v>
       </x:c>
-    </x:row>
-    <x:row r="154" spans="1:2">
-      <x:c r="A154" s="0" t="s">
+      <x:c r="C153" s="0" t="s">
         <x:v>306</x:v>
       </x:c>
+    </x:row>
+    <x:row r="154" spans="1:3">
       <x:c r="B154" s="0" t="s">
-        <x:v>233</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="155" spans="1:2">
-      <x:c r="A155" s="0" t="s">
         <x:v>307</x:v>
       </x:c>
+      <x:c r="C154" s="0" t="s">
+        <x:v>234</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="155" spans="1:3">
       <x:c r="B155" s="0" t="s">
         <x:v>308</x:v>
       </x:c>
-    </x:row>
-    <x:row r="156" spans="1:2">
-      <x:c r="A156" s="0" t="s">
+      <x:c r="C155" s="0" t="s">
         <x:v>309</x:v>
       </x:c>
+    </x:row>
+    <x:row r="156" spans="1:3">
       <x:c r="B156" s="0" t="s">
         <x:v>310</x:v>
       </x:c>
-    </x:row>
-    <x:row r="157" spans="1:2">
-      <x:c r="A157" s="0" t="s">
+      <x:c r="C156" s="0" t="s">
         <x:v>311</x:v>
       </x:c>
+    </x:row>
+    <x:row r="157" spans="1:3">
       <x:c r="B157" s="0" t="s">
         <x:v>312</x:v>
       </x:c>
-    </x:row>
-    <x:row r="158" spans="1:2">
-      <x:c r="A158" s="0" t="s">
+      <x:c r="C157" s="0" t="s">
         <x:v>313</x:v>
       </x:c>
+    </x:row>
+    <x:row r="158" spans="1:3">
       <x:c r="B158" s="0" t="s">
         <x:v>314</x:v>
       </x:c>
-    </x:row>
-    <x:row r="159" spans="1:2">
-      <x:c r="A159" s="0" t="s">
+      <x:c r="C158" s="0" t="s">
         <x:v>315</x:v>
       </x:c>
+    </x:row>
+    <x:row r="159" spans="1:3">
       <x:c r="B159" s="0" t="s">
         <x:v>316</x:v>
       </x:c>
-    </x:row>
-    <x:row r="160" spans="1:2">
-      <x:c r="A160" s="0" t="s">
+      <x:c r="C159" s="0" t="s">
         <x:v>317</x:v>
       </x:c>
+    </x:row>
+    <x:row r="160" spans="1:3">
       <x:c r="B160" s="0" t="s">
         <x:v>318</x:v>
       </x:c>
-    </x:row>
-    <x:row r="161" spans="1:2">
-      <x:c r="A161" s="0" t="s">
+      <x:c r="C160" s="0" t="s">
         <x:v>319</x:v>
       </x:c>
+    </x:row>
+    <x:row r="161" spans="1:3">
       <x:c r="B161" s="0" t="s">
         <x:v>320</x:v>
+      </x:c>
+      <x:c r="C161" s="0" t="s">
+        <x:v>321</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="322" count="322">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="482" count="482">
   <x:si>
     <x:t>donorid</x:t>
   </x:si>
@@ -25,961 +25,1441 @@
     <x:t>address</x:t>
   </x:si>
   <x:si>
+    <x:t>K00780</x:t>
+  </x:si>
+  <x:si>
     <x:t>KHONDA ANKIT KISHOR</x:t>
   </x:si>
   <x:si>
-    <x:t>125/5 PAREKH NIWAS, 1ST FLOOR,  TELANG ROAD</x:t>
+    <x:t>125/5 PAREKH NIWAS, 1ST FLOOR,  TELANG ROAD, MUMBAI- 400019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>K00690</x:t>
   </x:si>
   <x:si>
     <x:t>KATIRA RAJESH RAMESHCHANDRA</x:t>
   </x:si>
   <x:si>
-    <x:t>16, KAMALANAND SOC, SHAHID MANGAL PANDEY RD,  BEHIND POLICE STN</x:t>
+    <x:t>16, KAMALANAND SOC, SHAHID MANGAL PANDEY RD,  BEHIND POLICE STN, MUMBAI- 400080</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B00218</x:t>
   </x:si>
   <x:si>
     <x:t>BHEDA KHUSHAL NANJI (C.A)</x:t>
   </x:si>
   <x:si>
-    <x:t>A-1004, ZENITH,, P K  ROAD,,</x:t>
+    <x:t>A-1004, ZENITH,, P K  ROAD,,, MUMBAI- 400080</x:t>
+  </x:si>
+  <x:si>
+    <x:t>J00693</x:t>
   </x:si>
   <x:si>
     <x:t>JAIN CHETAN KANHAIYALAL</x:t>
   </x:si>
   <x:si>
-    <x:t>RM NO 1, DIVYAMAN APTS, JAKU, CLUB, T.P.S. 5TH RD, PRABHAT C,  JAKU CLUB,</x:t>
+    <x:t>RM NO 1, DIVYAMAN APTS, JAKU, CLUB, T.P.S. 5TH RD, PRABHAT C,  JAKU CLUB,, MUMBAI- 400055</x:t>
+  </x:si>
+  <x:si>
+    <x:t>P00352</x:t>
   </x:si>
   <x:si>
     <x:t>PAVASKAR KAMLESH SHARAD</x:t>
   </x:si>
   <x:si>
-    <x:t>20/1,SARASWATI BLDG, DR. S.S.R, LALBAUG, MUMBAI,</x:t>
+    <x:t>20/1,SARASWATI BLDG, DR. S.S.R, LALBAUG, MUMBAI,, MUMBAI- 400012</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B00510</x:t>
   </x:si>
   <x:si>
     <x:t>BARIA TEJALAL MANSUR</x:t>
   </x:si>
   <x:si>
-    <x:t>128/D RAM DEV NAGAR, J.R. BORICHA MARG,</x:t>
+    <x:t>128/D RAM DEV NAGAR, J.R. BORICHA MARG,, MUMBAI- 400011</x:t>
+  </x:si>
+  <x:si>
+    <x:t>V02395</x:t>
   </x:si>
   <x:si>
     <x:t>VORA CHIRAG MUKESH</x:t>
   </x:si>
   <x:si>
-    <x:t>B-21/22, AMBIKA ESTATE,, TILAK ROAD,,</x:t>
+    <x:t>B-21/22, AMBIKA ESTATE,, TILAK ROAD,,, MUMBAI- 400077</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D01537</x:t>
   </x:si>
   <x:si>
     <x:t>DEDHIA NEEL PRAVIN</x:t>
   </x:si>
   <x:si>
-    <x:t>B/19, NAV-VANI, 2ND FLR.,, VALLABH BAUG LANE,</x:t>
+    <x:t>B/19, NAV-VANI, 2ND FLR.,, VALLABH BAUG LANE,, MUMBAI- 400077</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M00158</x:t>
   </x:si>
   <x:si>
     <x:t>MAMANIA NARENDRA VISANJI</x:t>
   </x:si>
   <x:si>
-    <x:t>66/5,KALSHI SADAN,J.F.ROAD,, DADAR,BOMBAY.,</x:t>
+    <x:t>66/5,KALSHI SADAN,J.F.ROAD,, DADAR,BOMBAY.,, MUMBAI- 400014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M00133</x:t>
   </x:si>
   <x:si>
     <x:t>MAMANIA JINAL N</x:t>
   </x:si>
   <x:si>
-    <x:t>16/5 KALSI SADAN JOTIBA PUHLE, DADAR(E) MUMBAI,</x:t>
+    <x:t>16/5 KALSI SADAN JOTIBA PUHLE, DADAR(E) MUMBAI,, MUMBAI- 400014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M00603</x:t>
   </x:si>
   <x:si>
     <x:t>MOTA KAVAN MAHESH</x:t>
   </x:si>
   <x:si>
-    <x:t>26, NAWAB MANSION,, DR. MASHERI ROAD,</x:t>
+    <x:t>26, NAWAB MANSION,, DR. MASHERI ROAD,, MUMBAI- 400009</x:t>
+  </x:si>
+  <x:si>
+    <x:t>S04442</x:t>
   </x:si>
   <x:si>
     <x:t>SALUNKHE SANDEEP VISHNU</x:t>
   </x:si>
   <x:si>
-    <x:t>30/ SHROFF BLDG, RM NO 3 CHI, PUDHLI BAAJU ZOPARPATTI,  GOKHALE RD</x:t>
+    <x:t>30/ SHROFF BLDG, RM NO 3 CHI, PUDHLI BAAJU ZOPARPATTI,  GOKHALE RD, MUMBAI- 400025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D01080</x:t>
   </x:si>
   <x:si>
     <x:t>DEDHIA HEMAL DILIP</x:t>
   </x:si>
   <x:si>
-    <x:t>C/5, AMAN PARK, OPP CALICO, CHAKALA,</x:t>
+    <x:t>C/5, AMAN PARK, OPP CALICO, CHAKALA,, MUMBAI- 400099</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C01825</x:t>
   </x:si>
   <x:si>
     <x:t>CHHEDA ATIN VASANTLAL</x:t>
   </x:si>
   <x:si>
-    <x:t>221/GOHARTAY BLDG, ROOM NO 14, DR. B. .A. ROAD,</x:t>
+    <x:t>221/GOHARTAY BLDG, ROOM NO 14, DR. B. .A. ROAD,, MUMBAI- 400014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CK01343</x:t>
   </x:si>
   <x:si>
     <x:t>KANDALGAONKAR DINESH SUBHASH</x:t>
   </x:si>
   <x:si>
-    <x:t>11/705, SHIV PRASAD CHS.,, 7TH FLR., JERBAI WADIA ROAD,,</x:t>
+    <x:t>11/705, SHIV PRASAD CHS.,, 7TH FLR., JERBAI WADIA ROAD,,, MUMBAI- 400015</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D00848</x:t>
   </x:si>
   <x:si>
     <x:t>DHAROD KAMLESH ZAVERILAL</x:t>
   </x:si>
   <x:si>
-    <x:t>53-59,ZAVERI VILLA, 3/16 DR.D., LAMINTON RD. MUMBAI CENTRAL,MU,</x:t>
+    <x:t>53-59,ZAVERI VILLA, 3/16 DR.D., LAMINTON RD. MUMBAI CENTRAL,MU,, MUMBAI- 400008</x:t>
+  </x:si>
+  <x:si>
+    <x:t>S01432</x:t>
   </x:si>
   <x:si>
     <x:t>SHAH MEENA HITEN</x:t>
   </x:si>
   <x:si>
-    <x:t>64-C, MAHATRE NIWAS,, PAREL VILLAGE, MUMBAI,</x:t>
+    <x:t>64-C, MAHATRE NIWAS,, PAREL VILLAGE, MUMBAI,, MUMBAI- 400012</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CB00955</x:t>
   </x:si>
   <x:si>
     <x:t>BISWAS ANGSHOOK BIMAN</x:t>
   </x:si>
   <x:si>
-    <x:t>701, LE MIRIJE, 14TH ROAD,, ,</x:t>
+    <x:t>701, LE MIRIJE, 14TH ROAD,, ,, MUMBAI- 400052</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CD02147</x:t>
   </x:si>
   <x:si>
     <x:t>DEDHIA KEVAL NILESH</x:t>
   </x:si>
   <x:si>
-    <x:t>1/24, NOORBANU MANSION, 1ST FLR, DR.B.A. RD,</x:t>
+    <x:t>1/24, NOORBANU MANSION, 1ST FLR, DR.B.A. RD,, MUMBAI- 400012</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D01515</x:t>
   </x:si>
   <x:si>
     <x:t>DHAROD AARTI JIGNESH</x:t>
   </x:si>
   <x:si>
-    <x:t>4/5, RAMA BAI NIWAS, GOAL BLDG,</x:t>
+    <x:t>4/5, RAMA BAI NIWAS, GOAL BLDG,, MUMBAI- 400070</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D00278</x:t>
   </x:si>
   <x:si>
     <x:t>DEDHIA HITEN DAMJI</x:t>
   </x:si>
   <x:si>
-    <x:t>C/6, NARAYAN BHUVAN, 3RD FLOOR, GANGAWADI, L.B.S.RD,,</x:t>
+    <x:t>C/6, NARAYAN BHUVAN, 3RD FLOOR, GANGAWADI, L.B.S.RD,,, MUMBAI- 400084</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B00134</x:t>
   </x:si>
   <x:si>
     <x:t>BHANDARI SUSHIL HEMANT</x:t>
   </x:si>
   <x:si>
-    <x:t>101,GOVIND BLDG., J.P. ROAD,, DAUD BAUG LANE,ANDHERI (W),MUMBAI.,</x:t>
+    <x:t>101,GOVIND BLDG., J.P. ROAD,, DAUD BAUG LANE,ANDHERI (W),MUMBAI.,, MUMBAI- 400058</x:t>
+  </x:si>
+  <x:si>
+    <x:t>S01741</x:t>
   </x:si>
   <x:si>
     <x:t>SHAH UMESH SHAMJI</x:t>
   </x:si>
   <x:si>
-    <x:t>BLDG NO326/18,PANT NAGAR, TRIMURTI CHS,HINGWALA LANE,</x:t>
+    <x:t>BLDG NO326/18,PANT NAGAR, TRIMURTI CHS,HINGWALA LANE,, MUMBAI- 400075</x:t>
+  </x:si>
+  <x:si>
+    <x:t>S01357</x:t>
   </x:si>
   <x:si>
     <x:t>SHAH KUNDAN PRAVIN</x:t>
   </x:si>
   <x:si>
-    <x:t>22/2,ANAND VAIBHAV,N.C.KELKAR, DADAR, MUMBAI,</x:t>
+    <x:t>22/2,ANAND VAIBHAV,N.C.KELKAR, DADAR, MUMBAI,, MUMBAI- 400028</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M00240</x:t>
   </x:si>
   <x:si>
     <x:t>MARU CHAMPAKLAL RATANSHI</x:t>
   </x:si>
   <x:si>
-    <x:t>14,GOGRI NIWAS NO.1, HINDMATA,, OPP.TATA MILLS,DR.B.A.ROAD,BOM,</x:t>
+    <x:t>14,GOGRI NIWAS NO.1, HINDMATA,, OPP.TATA MILLS,DR.B.A.ROAD,BOM,, MUMBAI- 400014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N00374</x:t>
   </x:si>
   <x:si>
     <x:t>NAGDA VAISHALI KISHOR</x:t>
   </x:si>
   <x:si>
-    <x:t>PAM ANKAR CO SOC, M/5/B/705, PRATIKSHA NAGAR,  SION KOLIWADA</x:t>
+    <x:t>PAM ANKAR CO SOC, M/5/B/705, PRATIKSHA NAGAR,  SION KOLIWADA, MUMBAI- 400022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C01155</x:t>
   </x:si>
   <x:si>
     <x:t>CHHEDA SAGAR MAHENDRA</x:t>
   </x:si>
   <x:si>
-    <x:t>5/D, MOTISHA JAIN PARK, LOVE LANE,</x:t>
+    <x:t>5/D, MOTISHA JAIN PARK, LOVE LANE,, MUMBAI- 400027</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M00573</x:t>
   </x:si>
   <x:si>
     <x:t>MOTA BIPIN KALYANJI</x:t>
   </x:si>
   <x:si>
-    <x:t>2/205, USHA KIRAN SOC.,OPP., KALAYNI HOST.,560 SHUKRAWAR,  PETH,NR KHADAK CHOWK</x:t>
+    <x:t>2/205, USHA KIRAN SOC.,OPP., KALAYNI HOST.,560 SHUKRAWAR,  PETH,NR KHADAK CHOWK, PUNE- 411002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>G01396</x:t>
   </x:si>
   <x:si>
     <x:t>GALA SUSHIL SHANTILAL</x:t>
   </x:si>
   <x:si>
-    <x:t>11/12, BOTAWALA BLDG., R.B.MAR, GHODAPDEV, MUMBAI,</x:t>
+    <x:t>11/12, BOTAWALA BLDG., R.B.MAR, GHODAPDEV, MUMBAI,, MUMBAI- 400010</x:t>
+  </x:si>
+  <x:si>
+    <x:t>S00095</x:t>
   </x:si>
   <x:si>
     <x:t>SALUNKHE DEEPAK PANDURANG</x:t>
   </x:si>
   <x:si>
-    <x:t>210/2, KAMGAR NGR CHAWL # 2, N, PRABHADEVI RD., PRABHADEVI,MUM,</x:t>
+    <x:t>210/2, KAMGAR NGR CHAWL # 2, N, PRABHADEVI RD., PRABHADEVI,MUM,, MUMBAI- 400025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N00137</x:t>
   </x:si>
   <x:si>
     <x:t>NAMJOSHI PRAKASH GAJANAN</x:t>
   </x:si>
   <x:si>
-    <x:t>10, SHIVALAYA, NEAR HARI NIWAS, M.G.RD., NAUPADA,,</x:t>
+    <x:t>10, SHIVALAYA, NEAR HARI NIWAS, M.G.RD., NAUPADA,,, THANE- 400602</x:t>
+  </x:si>
+  <x:si>
+    <x:t>S03569</x:t>
   </x:si>
   <x:si>
     <x:t>SHIGWAN PRAMOD SURESH</x:t>
   </x:si>
   <x:si>
-    <x:t>KAL-BHAIRAV SOCEITY, SANJAY GANDHI NGR,PARK SIDE,</x:t>
+    <x:t>KAL-BHAIRAV SOCEITY, SANJAY GANDHI NGR,PARK SIDE,, MUMBAI- 400079</x:t>
+  </x:si>
+  <x:si>
+    <x:t>S02791</x:t>
   </x:si>
   <x:si>
     <x:t>SHAH ASHISH DAMJI</x:t>
   </x:si>
   <x:si>
-    <x:t>1201, NAVIN ASHA, 12 FLR, D.S.P ROAD,</x:t>
+    <x:t>1201, NAVIN ASHA, 12 FLR, D.S.P ROAD,, MUMBAI- 400014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CS04820</x:t>
   </x:si>
   <x:si>
     <x:t>SHAH VARUN ASHISH</x:t>
   </x:si>
   <x:si>
-    <x:t>1201, NAVIN ASHA CHS.,, DADASAHEB PHALKE ROAD,,</x:t>
+    <x:t>1201, NAVIN ASHA CHS.,, DADASAHEB PHALKE ROAD,,, MUMBAI- 400014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N00361</x:t>
   </x:si>
   <x:si>
     <x:t>NAYAK PRASHANT SADANAND</x:t>
   </x:si>
   <x:si>
-    <x:t>NAYAK CHEMIST CORNER,, SHOP - 2,,  NAVIJYOT BHAVAN. SAKINAKA.</x:t>
+    <x:t>NAYAK CHEMIST CORNER,, SHOP - 2,,  NAVIJYOT BHAVAN. SAKINAKA., MUMBAI- 400072</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D00598</x:t>
   </x:si>
   <x:si>
     <x:t>DEDHIA RASHMI JAYANT</x:t>
   </x:si>
   <x:si>
-    <x:t>9, BMC BLDG NO 10, SARADAR NGR, SION KOLIWADA, MUMBAI,</x:t>
+    <x:t>9, BMC BLDG NO 10, SARADAR NGR, SION KOLIWADA, MUMBAI,, MUMBAI- 400022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CD02102</x:t>
   </x:si>
   <x:si>
     <x:t>DEVKAR CHANDRAKANT RAMCHANDRA</x:t>
   </x:si>
   <x:si>
-    <x:t>6/609, NEKJAT MARATHA SADAN,, T.B. KADAM MARG,,</x:t>
+    <x:t>6/609, NEKJAT MARATHA SADAN,, T.B. KADAM MARG,,, MUMBAI- 400027</x:t>
+  </x:si>
+  <x:si>
+    <x:t>S00056</x:t>
   </x:si>
   <x:si>
     <x:t>SAKARWALA NAZMUDDIN SHARAFALI</x:t>
   </x:si>
   <x:si>
-    <x:t>C-36,MATCHESWALA BLDG.,MATCHES, WALA CMPD.,STN RD.,,</x:t>
+    <x:t>C-36,MATCHESWALA BLDG.,MATCHES, WALA CMPD.,STN RD.,,, MUMBAI- 400054</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D00738</x:t>
   </x:si>
   <x:si>
     <x:t>DEOLALIWALLA TASNEEM SHABBIR</x:t>
   </x:si>
   <x:si>
-    <x:t>1ST FLR.,COSY COTTAGE, X LOVE, BYCULLA (E), MUMBAI.,</x:t>
+    <x:t>1ST FLR.,COSY COTTAGE, X LOVE, BYCULLA (E), MUMBAI.,, MUMBAI- 400027</x:t>
+  </x:si>
+  <x:si>
+    <x:t>S02227</x:t>
   </x:si>
   <x:si>
     <x:t>SONI JAYENDRA LAXMICHAND</x:t>
   </x:si>
   <x:si>
-    <x:t>BLOCK - A, FLAT - F, 2ND FLR, NAVYUG MANSION,,  NAUSHIR BHARUCHA MARG</x:t>
+    <x:t>BLOCK - A, FLAT - F, 2ND FLR, NAVYUG MANSION,,  NAUSHIR BHARUCHA MARG, MUMBAI- 400007</x:t>
+  </x:si>
+  <x:si>
+    <x:t>S00903</x:t>
   </x:si>
   <x:si>
     <x:t>SAVLA VISHAL GIRISH</x:t>
   </x:si>
   <x:si>
-    <x:t>2/4,PLOT NO234,SHIV NIWAS COOP, HSG SOC,,</x:t>
+    <x:t>2/4,PLOT NO234,SHIV NIWAS COOP, HSG SOC,,, MUMBAI- 400022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C01568</x:t>
   </x:si>
   <x:si>
     <x:t>CHHEDA MILAN MAHENDRA</x:t>
   </x:si>
   <x:si>
-    <x:t>INDAR TOWER NX , A -19, 3RD FLR , OPP ZANDU,  KG MARG</x:t>
+    <x:t>INDAR TOWER NX , A -19, 3RD FLR , OPP ZANDU,  KG MARG, MUMBAI- 400025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CC01721</x:t>
   </x:si>
   <x:si>
     <x:t>CHHEDA PRAFUL LAXMICHAND</x:t>
   </x:si>
   <x:si>
-    <x:t>1/7, SALAM CHAWL,, BEHIND VITI BAKERY,,  GANESH MARG</x:t>
+    <x:t>1/7, SALAM CHAWL,, BEHIND VITI BAKERY,,  GANESH MARG, MUMBAI- 400083</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D00506</x:t>
   </x:si>
   <x:si>
     <x:t>DEDHIA NIPUL POPATLAL</x:t>
   </x:si>
   <x:si>
-    <x:t>B-406,LAXMAN PLAZA,AMBA WADI, RAMBHAU NGR,TULINJ RD,</x:t>
+    <x:t>B-406,LAXMAN PLAZA,AMBA WADI, RAMBHAU NGR,TULINJ RD,, PALGHAR- 401209</x:t>
+  </x:si>
+  <x:si>
+    <x:t>S00575</x:t>
   </x:si>
   <x:si>
     <x:t>SAVLA HETAL PARAG</x:t>
   </x:si>
   <x:si>
-    <x:t>1/6, PITAMBAR VILLA, BH PRATAP, CINEMA KOLBAD,THANE (W),,</x:t>
+    <x:t>1/6, PITAMBAR VILLA, BH PRATAP, CINEMA KOLBAD,THANE (W),,, THANE- 400601</x:t>
+  </x:si>
+  <x:si>
+    <x:t>G00732</x:t>
   </x:si>
   <x:si>
     <x:t>GALA ANIL BHAVANJI</x:t>
   </x:si>
   <x:si>
-    <x:t>20/16,SABUWALA BLDG.,, 15TH KAMATHIPUDA LANE,S.P.ROAD,</x:t>
+    <x:t>20/16,SABUWALA BLDG.,, 15TH KAMATHIPUDA LANE,S.P.ROAD,, MUMBAI- 400008</x:t>
+  </x:si>
+  <x:si>
+    <x:t>V00308</x:t>
   </x:si>
   <x:si>
     <x:t>VISARIYA BHARAT RAMJI</x:t>
   </x:si>
   <x:si>
-    <x:t>10, PORBUNDER APTS,, CHAMPSHI BH ROAD,,</x:t>
+    <x:t>10, PORBUNDER APTS,, CHAMPSHI BH ROAD,,, MUMBAI- 400010</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CS04999</x:t>
   </x:si>
   <x:si>
     <x:t>SARTAPE RAMESH PRAKASH</x:t>
   </x:si>
   <x:si>
-    <x:t>B-1, VIKAS NAGAR CHS.,, BEHRAM BAUG ROAD,,</x:t>
+    <x:t>B-1, VIKAS NAGAR CHS.,, BEHRAM BAUG ROAD,,, MUMBAI- 400102</x:t>
+  </x:si>
+  <x:si>
+    <x:t>S01348</x:t>
   </x:si>
   <x:si>
     <x:t>SHAH KISHORE KALYANJI</x:t>
   </x:si>
   <x:si>
-    <x:t>61,RAM BHUVAN,108/110,D.S.P.RO, DADAR, MUMBAI,</x:t>
+    <x:t>61,RAM BHUVAN,108/110,D.S.P.RO, DADAR, MUMBAI,, MUMBAI- 400014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M00428</x:t>
   </x:si>
   <x:si>
     <x:t>MEHTA LOKESH GYANCHAND</x:t>
   </x:si>
   <x:si>
-    <x:t>17,DURGAM BLDG, 2ND FLR, PLOT, S.P.RD, KAMATHIPURA, 12TH LANE,</x:t>
+    <x:t>17,DURGAM BLDG, 2ND FLR, PLOT, S.P.RD, KAMATHIPURA, 12TH LANE,, MUMBAI- 400008</x:t>
+  </x:si>
+  <x:si>
+    <x:t>G02109</x:t>
   </x:si>
   <x:si>
     <x:t>GUPTA VINOD BHOLAPRASAD</x:t>
   </x:si>
   <x:si>
-    <x:t>102/104, MEGHJI BLDG, B BLOCK, R NO 6A, S C MARG, MUMBAI,</x:t>
+    <x:t>102/104, MEGHJI BLDG, B BLOCK, R NO 6A, S C MARG, MUMBAI,, MUMBAI- 400009</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N00427</x:t>
   </x:si>
   <x:si>
     <x:t>NANDU FORAM ROHIT</x:t>
   </x:si>
   <x:si>
-    <x:t>33, LAXMI SADAN,, GOKHLE ROAD (NORTH),</x:t>
+    <x:t>33, LAXMI SADAN,, GOKHLE ROAD (NORTH),, MUMBAI- 400028</x:t>
+  </x:si>
+  <x:si>
+    <x:t>G00774</x:t>
   </x:si>
   <x:si>
     <x:t>GALA BHARAT MORARJI</x:t>
   </x:si>
   <x:si>
-    <x:t>108, SAI DWARKA,, DR AMBEDKAR ROAD,,  KALACHOWKI</x:t>
+    <x:t>108, SAI DWARKA,, DR AMBEDKAR ROAD,,  KALACHOWKI, MUMBAI- 400012</x:t>
+  </x:si>
+  <x:si>
+    <x:t>S04031</x:t>
   </x:si>
   <x:si>
     <x:t>SAVLA KIRIT MAVJI</x:t>
   </x:si>
   <x:si>
-    <x:t>9, BOMBAY SARGAM,, GARODIA NAGAR,,</x:t>
+    <x:t>9, BOMBAY SARGAM,, GARODIA NAGAR,,, MUMBAI- 400077</x:t>
+  </x:si>
+  <x:si>
+    <x:t>V00058</x:t>
   </x:si>
   <x:si>
     <x:t>VICHARE ANANT ARJUN</x:t>
   </x:si>
   <x:si>
-    <x:t>701,ANAND BHUVAN, OPP.BRAHMIN, VIDYALAYA,NR.STJOHN HIGHSCHOOL,  CHARAI</x:t>
+    <x:t>701,ANAND BHUVAN, OPP.BRAHMIN, VIDYALAYA,NR.STJOHN HIGHSCHOOL,  CHARAI, MUMBAI- 400601</x:t>
+  </x:si>
+  <x:si>
+    <x:t>S01012</x:t>
   </x:si>
   <x:si>
     <x:t>SHAH BHARAT HIRACHAND</x:t>
   </x:si>
   <x:si>
-    <x:t>4 PREM BAUG 218 SIR BHALCHANDR, MATUNGA (CR) MUMBAI,</x:t>
+    <x:t>4 PREM BAUG 218 SIR BHALCHANDR, MATUNGA (CR) MUMBAI,, MUMBAI- 400019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>S01409</x:t>
   </x:si>
   <x:si>
     <x:t>SHAH (NANDU) MANILAL RAMJIBHAI</x:t>
   </x:si>
   <x:si>
-    <x:t>205/9,SINDHU BLDG.,3RD FL.,, SION(E), MUMBAI,</x:t>
+    <x:t>205/9,SINDHU BLDG.,3RD FL.,, SION(E), MUMBAI,, MUMBAI- 400022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>H00365</x:t>
   </x:si>
   <x:si>
     <x:t>HEGDE NITIN NAVIN</x:t>
   </x:si>
   <x:si>
-    <x:t>F-243, SURYA KUND BLDG,, GUNPOWDER RD,  NEAR DOCKYARD STATION,</x:t>
+    <x:t>F-243, SURYA KUND BLDG,, GUNPOWDER RD,  NEAR DOCKYARD STATION,, MUMBAI- 400010</x:t>
+  </x:si>
+  <x:si>
+    <x:t>V00287</x:t>
   </x:si>
   <x:si>
     <x:t>VIRA VIKAS SHASHIKANT</x:t>
   </x:si>
   <x:si>
-    <x:t>1/30, POONAWALA CHAWL, G. K. M, LOWER PAREL, BOMBAY.,</x:t>
+    <x:t>1/30, POONAWALA CHAWL, G. K. M, LOWER PAREL, BOMBAY.,, MUMBAI- 400013</x:t>
+  </x:si>
+  <x:si>
+    <x:t>J00811</x:t>
   </x:si>
   <x:si>
     <x:t>JAIN RAJESHKUMAR BHIKAMCHAND</x:t>
   </x:si>
   <x:si>
-    <x:t>A/3,503, POONAM PARK, LALBAUGH IND ESTATE,  LALBAUGH</x:t>
+    <x:t>A/3,503, POONAM PARK, LALBAUGH IND ESTATE,  LALBAUGH, MUMBAI- 400012</x:t>
+  </x:si>
+  <x:si>
+    <x:t>G01561</x:t>
   </x:si>
   <x:si>
     <x:t>GANGAR JATIN DAMJI</x:t>
   </x:si>
   <x:si>
-    <x:t>A-1, SAHYADRI CO-OP HSG SOC;, GR. FL;  JERBAI WADIA RD,,</x:t>
+    <x:t>A-1, SAHYADRI CO-OP HSG SOC;, GR. FL;  JERBAI WADIA RD,,, MUMBAI- 400012</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N00277</x:t>
   </x:si>
   <x:si>
     <x:t>NISAR RITA JAYANTILAL</x:t>
   </x:si>
   <x:si>
-    <x:t>14, MAHAVIR CHHAYA, V.B. LANE,, GHATKOPAR(E), MUMBAI,</x:t>
+    <x:t>14, MAHAVIR CHHAYA, V.B. LANE,, GHATKOPAR(E), MUMBAI,, MUMBAI- 400077</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W00865</x:t>
   </x:si>
   <x:si>
     <x:t>WAGHULE SIDDHESH DADASAHEB</x:t>
   </x:si>
   <x:si>
-    <x:t>302, LAXMI KRUPA, 3RD FLR.,, B.A.ROAD,,</x:t>
+    <x:t>302, LAXMI KRUPA, 3RD FLR.,, B.A.ROAD,,, MUMBAI- 400033</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CS04821</x:t>
   </x:si>
   <x:si>
     <x:t>SHAH KEVIN ROHIT</x:t>
   </x:si>
   <x:si>
-    <x:t>FLAT NO.6, BOMBAY BAZAR,, STATION ROAD,,</x:t>
+    <x:t>FLAT NO.6, BOMBAY BAZAR,, STATION ROAD,,, MUMBAI- 400054</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D00667</x:t>
   </x:si>
   <x:si>
     <x:t>DEDHIA SUNIL DHARSHI</x:t>
   </x:si>
   <x:si>
-    <x:t>301,TRISHA APT.,, SHANTIPATH MARG,,  NEAR CHHAITYA TOWER,</x:t>
+    <x:t>301,TRISHA APT.,, SHANTIPATH MARG,,  NEAR CHHAITYA TOWER,, MUMBAI- 400010</x:t>
+  </x:si>
+  <x:si>
+    <x:t>G02702</x:t>
   </x:si>
   <x:si>
     <x:t>GALA PERIN KISHOR</x:t>
   </x:si>
   <x:si>
-    <x:t>201/14, BANSARI BHAWAN, ,</x:t>
+    <x:t>201/14, BANSARI BHAWAN, ,, MUMBAI- 400022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C00695</x:t>
   </x:si>
   <x:si>
     <x:t>CHHEDA RUPIN BHANJI</x:t>
   </x:si>
   <x:si>
-    <x:t>102,CORONATION MANSION,, D.S.PHALKE ROAD,DADAR,BOMBAY.,</x:t>
+    <x:t>102,CORONATION MANSION,, D.S.PHALKE ROAD,DADAR,BOMBAY.,, MUMBAI- 400014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>G01863</x:t>
   </x:si>
   <x:si>
     <x:t>SHAH NEETA KAMLESH</x:t>
   </x:si>
   <x:si>
-    <x:t>B-202, RACHNA BLDG, BLDG NO -23,, PANTHNAGAR</x:t>
+    <x:t>B-202, RACHNA BLDG, BLDG NO -23,, PANTHNAGAR, MUMBAI- 400077</x:t>
+  </x:si>
+  <x:si>
+    <x:t>G04096</x:t>
   </x:si>
   <x:si>
     <x:t>GALA KALPNA MAYUR</x:t>
   </x:si>
   <x:si>
-    <x:t>A-501, SWAMI SOCIETY,, N.M.JOSHI MARG,</x:t>
+    <x:t>A-501, SWAMI SOCIETY,, N.M.JOSHI MARG,, MUMBAI- 400011</x:t>
+  </x:si>
+  <x:si>
+    <x:t>G01730</x:t>
   </x:si>
   <x:si>
     <x:t>GHANWAT SAMPAT TUKARAM</x:t>
   </x:si>
   <x:si>
-    <x:t>505-C, CITY TRUST CHS, 1ST X LANE,</x:t>
+    <x:t>505-C, CITY TRUST CHS, 1ST X LANE,, MUMBAI- 400011</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D01394</x:t>
   </x:si>
   <x:si>
     <x:t>DEDHIA DHAVAL JAYANTI</x:t>
   </x:si>
   <x:si>
-    <x:t>149/19, SHIVNERI SOCIETY,, GORAI-2,,</x:t>
+    <x:t>149/19, SHIVNERI SOCIETY,, GORAI-2,,, MUMBAI- 400092</x:t>
+  </x:si>
+  <x:si>
+    <x:t>S02776</x:t>
   </x:si>
   <x:si>
     <x:t>SANGOI BHAVIN HASMUKH</x:t>
   </x:si>
   <x:si>
-    <x:t>95,MAGAN BAUG, 1STFLR,, SUNMILL ROAD,,</x:t>
+    <x:t>95,MAGAN BAUG, 1STFLR,, SUNMILL ROAD,,, MUMBAI- 400013</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C00429</x:t>
   </x:si>
   <x:si>
     <x:t>CHHEDA KIRAN VASANTLAL</x:t>
   </x:si>
   <x:si>
-    <x:t>14,BHAGIRATHI BHAVAN,3RD FL,R, 1ST PANJRAPOLE LANE,C.P.TANK,B,</x:t>
+    <x:t>14,BHAGIRATHI BHAVAN,3RD FL,R, 1ST PANJRAPOLE LANE,C.P.TANK,B,, MUMBAI- 400004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VP01554</x:t>
   </x:si>
   <x:si>
     <x:t>PALANI GAVRANG NITIN</x:t>
   </x:si>
   <x:si>
-    <x:t>C 42 N ROOM NO 7 1ST FLOOR, AMAR JYOTI CHS SEC 14,  MGCOMPLEX</x:t>
+    <x:t>C 42 N ROOM NO 7 1ST FLOOR, AMAR JYOTI CHS SEC 14,  MGCOMPLEX, NAVI MUMBAI- 400703</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HS04828</x:t>
   </x:si>
   <x:si>
     <x:t>SAVLA POOJA KAMLESH</x:t>
   </x:si>
   <x:si>
-    <x:t>B 103, RAJKAMAL HEIGHTS,, RAJKAMAL STUDIO, DR S S RAO,  ROAD</x:t>
+    <x:t>B 103, RAJKAMAL HEIGHTS,, RAJKAMAL STUDIO, DR S S RAO,  ROAD, MUMBAI- 400012</x:t>
+  </x:si>
+  <x:si>
+    <x:t>S03723</x:t>
   </x:si>
   <x:si>
     <x:t>SONI KIRAN HARESH</x:t>
   </x:si>
   <x:si>
-    <x:t>123/A, SUBHADRA NIWAS,, WORLI VILLAGE,</x:t>
+    <x:t>123/A, SUBHADRA NIWAS,, WORLI VILLAGE,, MUMBAI- 400030</x:t>
+  </x:si>
+  <x:si>
+    <x:t>G02527</x:t>
   </x:si>
   <x:si>
     <x:t>GADA TILAK MEGHJI</x:t>
   </x:si>
   <x:si>
-    <x:t>A/404, BLUE OASIS-2,, MAHAVIR NAGAR,,</x:t>
+    <x:t>A/404, BLUE OASIS-2,, MAHAVIR NAGAR,,, MUMBAI- 400067</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D02003</x:t>
   </x:si>
   <x:si>
     <x:t>DEDHIA NEEL DHIREN</x:t>
   </x:si>
   <x:si>
-    <x:t>2/38,MOHMADI BLDG, DR.B.A. ROAD,</x:t>
+    <x:t>2/38,MOHMADI BLDG, DR.B.A. ROAD,, MUMBAI- 400012</x:t>
+  </x:si>
+  <x:si>
+    <x:t>G01348</x:t>
   </x:si>
   <x:si>
     <x:t>GALA SACHIN HASMUKH</x:t>
   </x:si>
   <x:si>
-    <x:t>2ND FLOOR, LIKHITE HOUSE,, TAIKAL WADI, OFF L.J.ROAD,,</x:t>
+    <x:t>2ND FLOOR, LIKHITE HOUSE,, TAIKAL WADI, OFF L.J.ROAD,,, MUMBAI- 400016</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C00032</x:t>
   </x:si>
   <x:si>
     <x:t>CHHAVDA HASMUKH NARAYANDAS</x:t>
   </x:si>
   <x:si>
-    <x:t>3, P.M.GANGER CHAWL,1ST MAMALA, WADI, OPP PATEL TIMBER,,  MALAD-WEST</x:t>
+    <x:t>3, P.M.GANGER CHAWL,1ST MAMALA, WADI, OPP PATEL TIMBER,,  MALAD-WEST, MUMBAI- 400064</x:t>
+  </x:si>
+  <x:si>
+    <x:t>S03007</x:t>
   </x:si>
   <x:si>
     <x:t>SALIYA HARSH SHAILESH</x:t>
   </x:si>
   <x:si>
-    <x:t>2, KRISHNA KUNJ,, OPP. RAILWAY STATION,,</x:t>
+    <x:t>2, KRISHNA KUNJ,, OPP. RAILWAY STATION,,, MUMBAI- 400083</x:t>
+  </x:si>
+  <x:si>
+    <x:t>G00823</x:t>
   </x:si>
   <x:si>
     <x:t>SAVLA CHARMI VINAY</x:t>
   </x:si>
   <x:si>
-    <x:t>407, SIDDHESH APT., 4TH FLR.,, 2, KHATAR GALLY,,</x:t>
+    <x:t>407, SIDDHESH APT., 4TH FLR.,, 2, KHATAR GALLY,,, MUMBAI- 400002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>S02851</x:t>
   </x:si>
   <x:si>
     <x:t>SAVLA VINAY JETHALAL</x:t>
   </x:si>
   <x:si>
-    <x:t>407, SIDDHESH APT.,, 2, KHATAR GALLY,,</x:t>
+    <x:t>407, SIDDHESH APT.,, 2, KHATAR GALLY,,, MUMBAI- 400002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>S05155</x:t>
   </x:si>
   <x:si>
     <x:t>SHERLYN REBETLO FLEIX</x:t>
   </x:si>
   <x:si>
-    <x:t>126,SINGH ESTATE, BLOCK NO , B-10, DSP ROAD</x:t>
+    <x:t>126,SINGH ESTATE, BLOCK NO , B-10, DSP ROAD, MUMBAI- 400014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N00256</x:t>
   </x:si>
   <x:si>
     <x:t>DEDHIA DEVANSHI AASHAY</x:t>
   </x:si>
   <x:si>
-    <x:t>502, SHWETA APTS,, N M KALE MARG, AGAR BAZAR,</x:t>
+    <x:t>502, SHWETA APTS,, N M KALE MARG, AGAR BAZAR,, MUMBAI- 400028</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D01109</x:t>
   </x:si>
   <x:si>
     <x:t>DEDHIA AASHAY HASMUKH</x:t>
   </x:si>
   <x:si>
-    <x:t>502, SHWETA APTS,, N M KALE MARG,,  AGAR BAZAR</x:t>
+    <x:t>502, SHWETA APTS,, N M KALE MARG,,  AGAR BAZAR, MUMBAI- 400028</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M00367</x:t>
   </x:si>
   <x:si>
     <x:t>MARU YOGESH RATANSHI</x:t>
   </x:si>
   <x:si>
-    <x:t>11/1 SAHAKAR NAGAR, WADALA,</x:t>
+    <x:t>11/1 SAHAKAR NAGAR, WADALA,, MUMBAI- 400031</x:t>
+  </x:si>
+  <x:si>
+    <x:t>S02919</x:t>
   </x:si>
   <x:si>
     <x:t>SHAH SHITAL MAHESH</x:t>
   </x:si>
   <x:si>
-    <x:t>54/1852, NR MUKUND SCHOOL, M G ACHARYA MARG,</x:t>
+    <x:t>54/1852, NR MUKUND SCHOOL, M G ACHARYA MARG,, MUMBAI- 400071</x:t>
+  </x:si>
+  <x:si>
+    <x:t>V00196</x:t>
   </x:si>
   <x:si>
     <x:t>VIRA KIRIT BHIMSHI</x:t>
   </x:si>
   <x:si>
-    <x:t>303 , DHANVALLABH ASHISH, P AND T COLONY,</x:t>
+    <x:t>303 , DHANVALLABH ASHISH, P AND T COLONY,, NAVI MUMBAI- 421201</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R00030</x:t>
   </x:si>
   <x:si>
     <x:t>RAJPURE KISHOR KASHABA</x:t>
   </x:si>
   <x:si>
-    <x:t>D-303,GURU SADAN, 3RD FLR,, N.M.JOSHI MARG,,</x:t>
+    <x:t>D-303,GURU SADAN, 3RD FLR,, N.M.JOSHI MARG,,, MUMBAI- 400010</x:t>
+  </x:si>
+  <x:si>
+    <x:t>F00138</x:t>
   </x:si>
   <x:si>
     <x:t>FURIA KIRAN RAMJI</x:t>
   </x:si>
   <x:si>
-    <x:t>10, UMERBAI NIWAS, 2ND FLR, N.M.JOSHI MARG,</x:t>
+    <x:t>10, UMERBAI NIWAS, 2ND FLR, N.M.JOSHI MARG,, MUMBAI- 400027</x:t>
+  </x:si>
+  <x:si>
+    <x:t>F00129</x:t>
   </x:si>
   <x:si>
     <x:t>FURIA SONAL KIRAN</x:t>
   </x:si>
   <x:si>
-    <x:t>543/10, UMARBAI NIWAS,, 2ND FLR,,  BAKRAHADA</x:t>
+    <x:t>543/10, UMARBAI NIWAS,, 2ND FLR,,  BAKRAHADA, MUMBAI- 400011</x:t>
+  </x:si>
+  <x:si>
+    <x:t>G01475</x:t>
   </x:si>
   <x:si>
     <x:t>GALIA MANISHA BHAVESH</x:t>
   </x:si>
   <x:si>
-    <x:t>44,D. L. JAIN CHAWL NO.5,, CHINCHPOKLI,,</x:t>
+    <x:t>44,D. L. JAIN CHAWL NO.5,, CHINCHPOKLI,,, MUMBAI- 400012</x:t>
+  </x:si>
+  <x:si>
+    <x:t>S04427</x:t>
   </x:si>
   <x:si>
     <x:t>SHAH JIGAR PRAKASH</x:t>
   </x:si>
   <x:si>
-    <x:t>681/87, MAKBA BLDG., ROOM NO26, MAHAVIR ESTATE,,  N.M. JOSHI MARG,</x:t>
+    <x:t>681/87, MAKBA BLDG., ROOM NO26, MAHAVIR ESTATE,,  N.M. JOSHI MARG,, MUMBAI- 400027</x:t>
+  </x:si>
+  <x:si>
+    <x:t>J00705</x:t>
   </x:si>
   <x:si>
     <x:t>JAIN ALPA JAYESH</x:t>
   </x:si>
   <x:si>
-    <x:t>B/401, MERU TOWER,, DR.B.A.ROAD, NEAR MUKTA THEATR,  CHINCHPOKLI</x:t>
+    <x:t>B/401, MERU TOWER,, DR.B.A.ROAD, NEAR MUKTA THEATR,  CHINCHPOKLI, MUMBAI- 400033</x:t>
+  </x:si>
+  <x:si>
+    <x:t>J00712</x:t>
   </x:si>
   <x:si>
     <x:t>JAIN JAYESH ASHOK</x:t>
   </x:si>
   <x:si>
-    <x:t>3/18, D.L. JAIN CMPD.,, DR B.A. RD, OPP VOLTAS,</x:t>
+    <x:t>3/18, D.L. JAIN CMPD.,, DR B.A. RD, OPP VOLTAS,, MUMBAI- 400012</x:t>
+  </x:si>
+  <x:si>
+    <x:t>G02413</x:t>
   </x:si>
   <x:si>
     <x:t>GADA SHAILESH RAVJI</x:t>
   </x:si>
   <x:si>
-    <x:t>298, AMBABAI CHAWL,, FERGUSION ROAD,,</x:t>
+    <x:t>298, AMBABAI CHAWL,, FERGUSION ROAD,,, MUMBAI- 400013</x:t>
+  </x:si>
+  <x:si>
+    <x:t>K00335</x:t>
   </x:si>
   <x:si>
     <x:t>KHIMASIA GIRISH TALAKSHI</x:t>
   </x:si>
   <x:si>
-    <x:t>7/251, NEHRU NAGAR,, ,</x:t>
+    <x:t>7/251, NEHRU NAGAR,, ,, MUMBAI- 400024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>G01008</x:t>
   </x:si>
   <x:si>
     <x:t>GALA JITENDRA MORARJI</x:t>
   </x:si>
   <x:si>
-    <x:t>17/3, AJANTA APTS, TILAK RD,,</x:t>
+    <x:t>17/3, AJANTA APTS, TILAK RD,,, MUMBAI- 400054</x:t>
+  </x:si>
+  <x:si>
+    <x:t>G02731</x:t>
   </x:si>
   <x:si>
     <x:t>GALA MENKA JITENDRA</x:t>
   </x:si>
   <x:si>
-    <x:t>17/3, AJANTA APMT, 3RD FLR, TILAK RD,</x:t>
+    <x:t>17/3, AJANTA APMT, 3RD FLR, TILAK RD,, MUMBAI- 400054</x:t>
+  </x:si>
+  <x:si>
+    <x:t>S01925</x:t>
   </x:si>
   <x:si>
     <x:t>SHETHIA SAMIR RAMNIKLAL</x:t>
   </x:si>
   <x:si>
-    <x:t>8, MANGAL, 76/C, R. A. K., MATUNGA, MUMBAI,</x:t>
+    <x:t>8, MANGAL, 76/C, R. A. K., MATUNGA, MUMBAI,, MUMBAI- 400019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N00350</x:t>
   </x:si>
   <x:si>
     <x:t>NARVEKAR VIDHYADHAR VITHAL</x:t>
   </x:si>
   <x:si>
-    <x:t>BLDG NO-01, 703, MOHAN NAIK, GRAHA NIRMAN SANSHTA,,  MORACHI WADI, DAHIWALKAR MARG,</x:t>
+    <x:t>BLDG NO-01, 703, MOHAN NAIK, GRAHA NIRMAN SANSHTA,,  MORACHI WADI, DAHIWALKAR MARG,, MUMBAI- 400014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HG03899</x:t>
   </x:si>
   <x:si>
     <x:t>GOGRI CHIRAG PANKAJ</x:t>
   </x:si>
   <x:si>
-    <x:t>ROOM NO 12, ANJALI CHS, NEXT TO APNA BAZAAR,  J N ROAD</x:t>
+    <x:t>ROOM NO 12, ANJALI CHS, NEXT TO APNA BAZAAR,  J N ROAD, MUMBAI- 400080</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CS04976</x:t>
   </x:si>
   <x:si>
     <x:t>SHUKLA RATNESH RAMAKANT</x:t>
   </x:si>
   <x:si>
-    <x:t>ROOM NO.29, VIKRANT SADAN,, GAS CO. LANE,</x:t>
+    <x:t>ROOM NO.29, VIKRANT SADAN,, GAS CO. LANE,, MUMBAI- 400012</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M00953</x:t>
   </x:si>
   <x:si>
     <x:t>MAMANIA DHIREN TALAKSHI</x:t>
   </x:si>
   <x:si>
-    <x:t>A/203, PADMA SAGAR CHS.,, KESHAVJI NGR, BHATTI PADA,,</x:t>
+    <x:t>A/203, PADMA SAGAR CHS.,, KESHAVJI NGR, BHATTI PADA,,, MUMBAI- 400079</x:t>
+  </x:si>
+  <x:si>
+    <x:t>V02758</x:t>
   </x:si>
   <x:si>
     <x:t>VORA PRAVINCHANDRA KUVERJI</x:t>
   </x:si>
   <x:si>
-    <x:t>8, PARVATI BLDG,, K.A.SUBRAMANIUM RD,</x:t>
+    <x:t>8, PARVATI BLDG,, K.A.SUBRAMANIUM RD,, MUMBAI- 400019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>S00022</x:t>
   </x:si>
   <x:si>
     <x:t>SAIYA DINESH JADAVJI</x:t>
   </x:si>
   <x:si>
-    <x:t>10 DESAI CHAWL, CARTER RD NO., OPP SAIDHAM,BORIVALI (E), MUMB,</x:t>
+    <x:t>10 DESAI CHAWL, CARTER RD NO., OPP SAIDHAM,BORIVALI (E), MUMB,, MUMBAI- 400066</x:t>
+  </x:si>
+  <x:si>
+    <x:t>S02645</x:t>
   </x:si>
   <x:si>
     <x:t>SHAH JIGNA BHARAT</x:t>
   </x:si>
   <x:si>
-    <x:t>B/1202, SILVER LINK HIRANANDAN, ESTATE, PATLI PADA, G.B.ROAD,</x:t>
+    <x:t>B/1202, SILVER LINK HIRANANDAN, ESTATE, PATLI PADA, G.B.ROAD,, THANE- 400607</x:t>
+  </x:si>
+  <x:si>
+    <x:t>J00568</x:t>
   </x:si>
   <x:si>
     <x:t>JAIN ASHOK CHAMPALALJI</x:t>
   </x:si>
   <x:si>
-    <x:t>R.N.18, BIT CHAWL NO 13, M.G.RD,</x:t>
+    <x:t>R.N.18, BIT CHAWL NO 13, M.G.RD,, MUMBAI- 400011</x:t>
+  </x:si>
+  <x:si>
+    <x:t>J00995</x:t>
   </x:si>
   <x:si>
     <x:t>JAIN MUKESH KUNDANMAL</x:t>
   </x:si>
   <x:si>
-    <x:t>3/5 , AHMAD CELLAR BLD, JYOTIBA PHULE RD,  NAIGOAN</x:t>
+    <x:t>3/5 , AHMAD CELLAR BLD, JYOTIBA PHULE RD,  NAIGOAN, MUMBAI- 400014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CR00798</x:t>
   </x:si>
   <x:si>
     <x:t>RANKA YOGESH SHANTILAL</x:t>
   </x:si>
   <x:si>
-    <x:t>ROOM NO 3, 28 GALA MANSION, AGAR BAZAAR, S K BHOLE ROAD,</x:t>
+    <x:t>ROOM NO 3, 28 GALA MANSION, AGAR BAZAAR, S K BHOLE ROAD,, MUMBAI- 400028</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N00205</x:t>
   </x:si>
   <x:si>
     <x:t>NANDU VIJAY SHIVJI</x:t>
   </x:si>
   <x:si>
-    <x:t>27, AMIN MANSION, 2ND FLR, 225, N.M.JOSHI RD, CURRY RD, MUMBAI,</x:t>
+    <x:t>27, AMIN MANSION, 2ND FLR, 225, N.M.JOSHI RD, CURRY RD, MUMBAI,, MUMBAI- 400013</x:t>
+  </x:si>
+  <x:si>
+    <x:t>V00549</x:t>
   </x:si>
   <x:si>
     <x:t>VORA MANISH BHAVANJI</x:t>
   </x:si>
   <x:si>
-    <x:t>8/5, AZAD NGR., R.A. KIDAY ROA, WADALA (W), MUMBAI,</x:t>
+    <x:t>8/5, AZAD NGR., R.A. KIDAY ROA, WADALA (W), MUMBAI,, MUMBAI- 400031</x:t>
+  </x:si>
+  <x:si>
+    <x:t>V00479</x:t>
   </x:si>
   <x:si>
     <x:t>VORA HARSHIKA MANISH</x:t>
   </x:si>
   <x:si>
-    <x:t>8/5 AZAD NAGAR,, ,</x:t>
+    <x:t>8/5 AZAD NAGAR,, ,, MUMBAI- 400031</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A00095</x:t>
   </x:si>
   <x:si>
     <x:t>ASHER JATIN MAHENDRA</x:t>
   </x:si>
   <x:si>
-    <x:t>2/3, RAMBHIA APT., 1ST FLR.,, KHOKHANI LANE,,</x:t>
+    <x:t>2/3, RAMBHIA APT., 1ST FLR.,, KHOKHANI LANE,,, MUMBAI- 400077</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VV02711</x:t>
   </x:si>
   <x:si>
     <x:t>VYAS SHUBHAM </x:t>
   </x:si>
   <x:si>
-    <x:t>1001 A WING, OPG TOWER,  SANPADA</x:t>
+    <x:t>1001 A WING, OPG TOWER,  SANPADA, MUMBAI- 400703</x:t>
+  </x:si>
+  <x:si>
+    <x:t>V02311</x:t>
   </x:si>
   <x:si>
     <x:t>VEERA MIHIR SANJAY</x:t>
   </x:si>
   <x:si>
-    <x:t>13-14, ANIL APT.,3RD FLR.,, JAGDUSHA NAGAR,,</x:t>
+    <x:t>13-14, ANIL APT.,3RD FLR.,, JAGDUSHA NAGAR,,, MUMBAI- 400086</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D00271</x:t>
   </x:si>
   <x:si>
     <x:t>DEDHIA HINA BHARAT</x:t>
   </x:si>
   <x:si>
-    <x:t>4, DATAR BLDG,, SANE GURUJI RD, LALBAUG, MUMBA,</x:t>
+    <x:t>4, DATAR BLDG,, SANE GURUJI RD, LALBAUG, MUMBA,, MUMBAI- 400012</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I00020</x:t>
   </x:si>
   <x:si>
     <x:t>IYER RAHUL RAJAN</x:t>
   </x:si>
   <x:si>
-    <x:t>21/334, ADARSH NAGAR, 1ST FLR, NEAR PASSPORT OFFICE,</x:t>
+    <x:t>21/334, ADARSH NAGAR, 1ST FLR, NEAR PASSPORT OFFICE,, MUMBAI- 400025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>J01172</x:t>
   </x:si>
   <x:si>
     <x:t>JAIN NILESH PRAKASH</x:t>
   </x:si>
   <x:si>
-    <x:t>VIJAYA RESIDENCY B WING, 1403 CHIVDA GULLY,</x:t>
+    <x:t>VIJAYA RESIDENCY B WING, 1403 CHIVDA GULLY,, MUMBAI- 400012</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CK01345</x:t>
   </x:si>
   <x:si>
     <x:t>KENIA BHAVANA ATUL</x:t>
   </x:si>
   <x:si>
-    <x:t>543,16 UMAR BAI NIWAS, 4TH FLOOR,,  BAKRIADDA</x:t>
+    <x:t>543,16 UMAR BAI NIWAS, 4TH FLOOR,,  BAKRIADDA, MUMBAI- 400011</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CK01344</x:t>
   </x:si>
   <x:si>
     <x:t>KENIA ATUL RAMESH</x:t>
   </x:si>
   <x:si>
-    <x:t>543/16, UMAR BAI NIWAS, 4TH, FLOOR, BYCULLA,</x:t>
+    <x:t>543/16, UMAR BAI NIWAS, 4TH, FLOOR, BYCULLA,, MUMBAI- 400027</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CD02188</x:t>
   </x:si>
   <x:si>
     <x:t>DEDHIA DHAIRYA SUNIL</x:t>
   </x:si>
   <x:si>
-    <x:t>301, TRISLA APTS, SHANTI PATH, MARG,</x:t>
+    <x:t>301, TRISLA APTS, SHANTI PATH, MARG,, MUMBAI- 400010</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CV02681</x:t>
   </x:si>
   <x:si>
     <x:t>VORA DHAVAL DILIP</x:t>
   </x:si>
   <x:si>
-    <x:t>205,VASANT VASTRALAYA, CHURCH COMPOUND,,  DR B A ROAD, HINDMATA</x:t>
+    <x:t>205,VASANT VASTRALAYA, CHURCH COMPOUND,,  DR B A ROAD, HINDMATA, MUMBAI- 400014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>K00890</x:t>
   </x:si>
   <x:si>
     <x:t>KHUTHIA YASH NITIN</x:t>
   </x:si>
   <x:si>
-    <x:t>D-7/5, PARK SIDE COLONY,, NEAR 387 LAST BUS STOP,,</x:t>
+    <x:t>D-7/5, PARK SIDE COLONY,, NEAR 387 LAST BUS STOP,,, MUMBAI- 400079</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C00998</x:t>
   </x:si>
   <x:si>
     <x:t>CHHEDA EKTA MEHUL</x:t>
   </x:si>
   <x:si>
-    <x:t>A/502, ELIZABETH APPTS., B M RD.,</x:t>
+    <x:t>A/502, ELIZABETH APPTS., B M RD.,, MUMBAI- 400013</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C00497</x:t>
   </x:si>
   <x:si>
     <x:t>CHHEDA MEHUL DAMJI</x:t>
   </x:si>
   <x:si>
-    <x:t>A/502, ELIZABETH APT.,, B.M. ROAD,,</x:t>
+    <x:t>A/502, ELIZABETH APT.,, B.M. ROAD,,, MUMBAI- 400013</x:t>
+  </x:si>
+  <x:si>
+    <x:t>S03893</x:t>
   </x:si>
   <x:si>
     <x:t>SAVLA RACHIT JITENDRA</x:t>
   </x:si>
   <x:si>
-    <x:t>2/29 , SAHAJIVAN BLD, 537 , H N M JOSHI MARG,</x:t>
+    <x:t>2/29 , SAHAJIVAN BLD, 537 , H N M JOSHI MARG,, MUMBAI- 400011</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CF00214</x:t>
   </x:si>
   <x:si>
     <x:t>FURIA DHWANIT DEVENDRA</x:t>
   </x:si>
   <x:si>
-    <x:t>201, VARDHAMAN APTS,, SHIVDAS CHAPSI MARG,  SHANTI PATH LANE</x:t>
+    <x:t>201, VARDHAMAN APTS,, SHIVDAS CHAPSI MARG,  SHANTI PATH LANE, MUMBAI- 400010</x:t>
+  </x:si>
+  <x:si>
+    <x:t>G03161</x:t>
   </x:si>
   <x:si>
     <x:t>GOGRI ROUMIL SURESH</x:t>
   </x:si>
   <x:si>
-    <x:t>F/104, VEENA BEENA, 1ST FLR,, T.J.ROAD,,</x:t>
+    <x:t>F/104, VEENA BEENA, 1ST FLR,, T.J.ROAD,,, MUMBAI- 400015</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M00469</x:t>
   </x:si>
   <x:si>
     <x:t>MERCHANT MITA AMIT</x:t>
   </x:si>
   <x:si>
-    <x:t>507/508-B ADARSH CHS, G.D AMBE, MG,NX.TO WADALA TEL EXC,,,</x:t>
+    <x:t>507/508-B ADARSH CHS, G.D AMBE, MG,NX.TO WADALA TEL EXC,,,, MUMBAI- 400014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M00468</x:t>
   </x:si>
   <x:si>
     <x:t>MERCHANT AMIT LALIT</x:t>
   </x:si>
   <x:si>
-    <x:t>B/507-508, ADARSH CHS.,, G.D.AMBEKAR ROAD,,</x:t>
+    <x:t>B/507-508, ADARSH CHS.,, G.D.AMBEKAR ROAD,,, MUMBAI- 400014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>S02837</x:t>
   </x:si>
   <x:si>
     <x:t>SHETHIA ASHISH KALYANJI</x:t>
   </x:si>
   <x:si>
-    <x:t>B/604, BHUSAN PARK VIEW,, BLDG. NO.4,CHIKUWADI,,</x:t>
+    <x:t>B/604, BHUSAN PARK VIEW,, BLDG. NO.4,CHIKUWADI,,, MUMBAI- 400092</x:t>
+  </x:si>
+  <x:si>
+    <x:t>V00608</x:t>
   </x:si>
   <x:si>
     <x:t>VORA RAKSHA ASHOK</x:t>
   </x:si>
   <x:si>
-    <x:t>25, D.L.JAIN CHAWL NO. 5,, CHINCHPOKLI, MUMBAI.,</x:t>
+    <x:t>25, D.L.JAIN CHAWL NO. 5,, CHINCHPOKLI, MUMBAI.,, MUMBAI- 400012</x:t>
+  </x:si>
+  <x:si>
+    <x:t>K01498</x:t>
   </x:si>
   <x:si>
     <x:t>KHABARIA KUSHBOO MAHESH</x:t>
   </x:si>
   <x:si>
-    <x:t>403, INTEGRATED KARMA SANDESH,, HINGWALA CROSS LANE,</x:t>
+    <x:t>403, INTEGRATED KARMA SANDESH,, HINGWALA CROSS LANE,, MUMBAI- 400077</x:t>
+  </x:si>
+  <x:si>
+    <x:t>H00126</x:t>
   </x:si>
   <x:si>
     <x:t>HARIA UTTAM MULJI</x:t>
   </x:si>
   <x:si>
-    <x:t>190,DAND PADA B/H. SHANKAR GYM, KHAR DANDA,</x:t>
+    <x:t>190,DAND PADA B/H. SHANKAR GYM, KHAR DANDA,, MUMBAI- 400052</x:t>
+  </x:si>
+  <x:si>
+    <x:t>P01740</x:t>
   </x:si>
   <x:si>
     <x:t>PATHAN SALIM AHMED</x:t>
   </x:si>
   <x:si>
-    <x:t>C10, SOHAM STORE, BHANDARA ROAD,</x:t>
+    <x:t>C10, SOHAM STORE, BHANDARA ROAD,, MUMBAI- 400019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>S01247</x:t>
   </x:si>
   <x:si>
     <x:t>SHAH JAYANTILAL MALSHI</x:t>
   </x:si>
   <x:si>
-    <x:t>10,TALUKDAR CHAWL,SAIBABA ROAD, JAWAHAR NGR.,KHAR(E),BOMBAY.,</x:t>
+    <x:t>10,TALUKDAR CHAWL,SAIBABA ROAD, JAWAHAR NGR.,KHAR(E),BOMBAY.,, MUMBAI- 400051</x:t>
+  </x:si>
+  <x:si>
+    <x:t>H00263</x:t>
   </x:si>
   <x:si>
     <x:t>HARIA PARAS UTTAM</x:t>
   </x:si>
   <x:si>
-    <x:t>190, DAND PADA,B/H. SHANKAR GY, KHAR DANDA,</x:t>
+    <x:t>190, DAND PADA,B/H. SHANKAR GY, KHAR DANDA,, MUMBAI- 400052</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CP01624</x:t>
   </x:si>
   <x:si>
     <x:t>PAREKH AJAY HASMUKH</x:t>
   </x:si>
   <x:si>
-    <x:t>202, SANTACRUZE BALKRISHNA, CHSL., 44-A, TILAK ROAD,,</x:t>
+    <x:t>202, SANTACRUZE BALKRISHNA, CHSL., 44-A, TILAK ROAD,,, MUMBAI- 400054</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D00535</x:t>
   </x:si>
   <x:si>
     <x:t>DEDHIA PIYUSH DHANJI</x:t>
   </x:si>
   <x:si>
-    <x:t>80, HIRJI BAUG WADI,SUMATINATH, APTS J.B. ROAD, SEWREE, MUMBAI,</x:t>
+    <x:t>80, HIRJI BAUG WADI,SUMATINATH, APTS J.B. ROAD, SEWREE, MUMBAI,, MUMBAI- 400015</x:t>
+  </x:si>
+  <x:si>
+    <x:t>S01808</x:t>
   </x:si>
   <x:si>
     <x:t>SAVLA YOGITA KETAN</x:t>
   </x:si>
   <x:si>
-    <x:t>E/404, VEENA BEENA CHS, A.D. MARG,,</x:t>
+    <x:t>E/404, VEENA BEENA CHS, A.D. MARG,,, MUMBAI- 400015</x:t>
+  </x:si>
+  <x:si>
+    <x:t>V00306</x:t>
   </x:si>
   <x:si>
     <x:t>VISARIA ATUL NANJI</x:t>
   </x:si>
   <x:si>
-    <x:t>701/702,SIDDHESH JYOTI TOWER, E-WING,C.S.NO153/154,BALARAMST,  BALARAM STREET</x:t>
+    <x:t>701/702,SIDDHESH JYOTI TOWER, E-WING,C.S.NO153/154,BALARAMST,  BALARAM STREET, MUMBAI- 400007</x:t>
+  </x:si>
+  <x:si>
+    <x:t>J00985</x:t>
   </x:si>
   <x:si>
     <x:t>JAIN MANISH KISHOR</x:t>
   </x:si>
   <x:si>
-    <x:t>113/115, ROOM NO.75,, SARSWATI SADAN, 4TH FLR.,,</x:t>
+    <x:t>113/115, ROOM NO.75,, SARSWATI SADAN, 4TH FLR.,,, MUMBAI- 400009</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N00082</x:t>
   </x:si>
   <x:si>
     <x:t>NAGDA RAJESH LAXMICHAND</x:t>
   </x:si>
   <x:si>
-    <x:t>3/45 AHMED SAILOR BLDG,J PHULE, NAIGAON,DADAR(E), MUMBAI,</x:t>
+    <x:t>3/45 AHMED SAILOR BLDG,J PHULE, NAIGAON,DADAR(E), MUMBAI,, MUMBAI- 400014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>V02620</x:t>
   </x:si>
   <x:si>
     <x:t>VEERA PARAS LAHERCHAND</x:t>
   </x:si>
   <x:si>
-    <x:t>59, KAKAD BLDG., 3RD FLR.,, ROOM NO.16, GOA STREET,,</x:t>
+    <x:t>59, KAKAD BLDG., 3RD FLR.,, ROOM NO.16, GOA STREET,,, MUMBAI- 400001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D00082</x:t>
   </x:si>
   <x:si>
     <x:t>DEDHIA ASHA HITEN</x:t>
   </x:si>
   <x:si>
-    <x:t>6/C, NARAYAN BHUVAN, JAWHAR NA, AGRA RD,,</x:t>
+    <x:t>6/C, NARAYAN BHUVAN, JAWHAR NA, AGRA RD,,, MUMBAI- 400084</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N00529</x:t>
   </x:si>
   <x:si>
     <x:t>NAGDA NEHA CHANDRAKANT</x:t>
   </x:si>
   <x:si>
-    <x:t>SIDDESH ELECTRONICS, SHOP NO.6, VAJIR MD. PATRA CHAWL,,  V.Y.D.B. MARG,</x:t>
+    <x:t>SIDDESH ELECTRONICS, SHOP NO.6, VAJIR MD. PATRA CHAWL,,  V.Y.D.B. MARG,, MUMBAI- 400014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N00416</x:t>
   </x:si>
   <x:si>
     <x:t>NAGDA KAVITA RAJESH</x:t>
   </x:si>
   <x:si>
-    <x:t>3/45, AHMED SAILOR BLDG.,, 2ND FLR.,,  J.P. PHULE MARG,</x:t>
+    <x:t>3/45, AHMED SAILOR BLDG.,, 2ND FLR.,,  J.P. PHULE MARG,, MUMBAI- 400014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D00131</x:t>
   </x:si>
   <x:si>
     <x:t>DEDHIA CHANDRAKANT KARAMSHI</x:t>
   </x:si>
   <x:si>
-    <x:t>5,KHURANA BHUVAN,, N.S.ROAD, MULUND (W),MUMBAI,</x:t>
+    <x:t>5,KHURANA BHUVAN,, N.S.ROAD, MULUND (W),MUMBAI,, MUMBAI- 400080</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N00387</x:t>
   </x:si>
   <x:si>
     <x:t>NAGDA VINKITA CHANDRAKANT</x:t>
   </x:si>
   <x:si>
-    <x:t>SHOP NO.6, VAJHU MOHD PATHAN, CHAWL, DALMILKAR MARG,,  BEHIND APNA BAZAR,NAIGAON,</x:t>
+    <x:t>SHOP NO.6, VAJHU MOHD PATHAN, CHAWL, DALMILKAR MARG,,  BEHIND APNA BAZAR,NAIGAON,, MUMBAI- 400014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D00637</x:t>
   </x:si>
   <x:si>
     <x:t>DEDHIA SANJAY NEMJI</x:t>
   </x:si>
   <x:si>
-    <x:t>7, DEEPAK CHS., 2ND FL.,, DESAI CMPD,H. SHANKAR JOSHI MG,</x:t>
+    <x:t>7, DEEPAK CHS., 2ND FL.,, DESAI CMPD,H. SHANKAR JOSHI MG,, MUMBAI- 400068</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VV02710</x:t>
   </x:si>
   <x:si>
     <x:t>VYAS NAKUL </x:t>
   </x:si>
   <x:si>
+    <x:t>CS04817</x:t>
+  </x:si>
+  <x:si>
     <x:t>SAWANT TEJAS MAHADEV</x:t>
   </x:si>
   <x:si>
-    <x:t>B-23, 3RD FLR.,, BEST STAFF QUATER,</x:t>
+    <x:t>B-23, 3RD FLR.,, BEST STAFF QUATER,, MUMBAI- 400031</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D01390</x:t>
   </x:si>
   <x:si>
     <x:t>DEDHIA RAJ ZAVERCHAND</x:t>
   </x:si>
   <x:si>
-    <x:t>2/31, MOHAMADI BLDG., DR .B.A.ROAD,,</x:t>
+    <x:t>2/31, MOHAMADI BLDG., DR .B.A.ROAD,,, MUMBAI- 400012</x:t>
+  </x:si>
+  <x:si>
+    <x:t>G04095</x:t>
   </x:si>
   <x:si>
     <x:t>GANGAR DEEP NAYAN</x:t>
   </x:si>
   <x:si>
-    <x:t>B-203 SHYAM APT.,, TAMBE NAGAR</x:t>
+    <x:t>B-203 SHYAM APT.,, TAMBE NAGAR, MUMBAI- 400080</x:t>
+  </x:si>
+  <x:si>
+    <x:t>S01188</x:t>
   </x:si>
   <x:si>
     <x:t>SHAH HASMUKH TALAKSHI</x:t>
   </x:si>
   <x:si>
-    <x:t>201, SHIVAJI NAGAR, 2ND FLR,, N.M.JOSHI MARG, CURRY RD, MUMB,</x:t>
+    <x:t>201, SHIVAJI NAGAR, 2ND FLR,, N.M.JOSHI MARG, CURRY RD, MUMB,, MUMBAI- 400013</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CR00818</x:t>
   </x:si>
   <x:si>
     <x:t>RAKHATE POOJA NARESH</x:t>
   </x:si>
   <x:si>
-    <x:t>3/22, NEW MUNICIPAL BLDG.,, NAIGAON CROSS ROAD,,</x:t>
+    <x:t>3/22, NEW MUNICIPAL BLDG.,, NAIGAON CROSS ROAD,,, MUMBAI- 400014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CM01722</x:t>
   </x:si>
   <x:si>
     <x:t>MOTA ANKIT MULCHAND</x:t>
   </x:si>
   <x:si>
-    <x:t>85/7, BHAUDADI ROAD,, ,</x:t>
+    <x:t>85/7, BHAUDADI ROAD,, ,, MUMBAI- 400019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>S05154</x:t>
   </x:si>
   <x:si>
     <x:t>SHAH ZARNA SANJAY</x:t>
   </x:si>
   <x:si>
-    <x:t>32, MOHANLAL MANSION,, 2ND FLR, L.N.ROAD,</x:t>
+    <x:t>32, MOHANLAL MANSION,, 2ND FLR, L.N.ROAD,, MUMBAI- 400019</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1354,1283 +1834,1763 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
+      <x:c r="A2" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
+      <x:c r="A3" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
+      <x:c r="A4" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
+      <x:c r="A5" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
+      <x:c r="A6" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
+      <x:c r="A7" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
+      <x:c r="A8" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
+      <x:c r="A9" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
+      <x:c r="A10" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
+      <x:c r="A11" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
+      <x:c r="A12" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
+      <x:c r="A13" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
+      <x:c r="A14" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
+      <x:c r="A15" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
+      <x:c r="A16" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
+      <x:c r="A17" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
+      <x:c r="A18" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
+      <x:c r="A19" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
+      <x:c r="A20" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:3">
+      <x:c r="A21" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:3">
+      <x:c r="A22" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:3">
+      <x:c r="A23" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:3">
+      <x:c r="A24" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:3">
+      <x:c r="A25" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:3">
+      <x:c r="A26" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:3">
+      <x:c r="A27" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:3">
+      <x:c r="A28" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:3">
+      <x:c r="A29" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:3">
+      <x:c r="A30" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:3">
+      <x:c r="A31" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:3">
+      <x:c r="A32" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:3">
+      <x:c r="A33" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:3">
+      <x:c r="A34" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:3">
+      <x:c r="A35" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:3">
+      <x:c r="A36" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:3">
+      <x:c r="A37" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:3">
+      <x:c r="A38" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
       <x:c r="B38" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:3">
+      <x:c r="A39" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
       <x:c r="B39" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:3">
+      <x:c r="A40" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:3">
+      <x:c r="A41" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
       <x:c r="B41" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:3">
+      <x:c r="A42" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
       <x:c r="B42" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:3">
+      <x:c r="A43" s="0" t="s">
+        <x:v>126</x:v>
+      </x:c>
       <x:c r="B43" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C43" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:3">
+      <x:c r="A44" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
       <x:c r="B44" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="C44" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:3">
+      <x:c r="A45" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
       <x:c r="B45" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="C45" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:3">
+      <x:c r="A46" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
       <x:c r="B46" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:3">
+      <x:c r="A47" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
       <x:c r="B47" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="C47" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:3">
+      <x:c r="A48" s="0" t="s">
+        <x:v>141</x:v>
+      </x:c>
       <x:c r="B48" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="C48" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:3">
+      <x:c r="A49" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
       <x:c r="B49" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="C49" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>146</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:3">
+      <x:c r="A50" s="0" t="s">
+        <x:v>147</x:v>
+      </x:c>
       <x:c r="B50" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="C50" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:3">
+      <x:c r="A51" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
       <x:c r="B51" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="C51" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:3">
+      <x:c r="A52" s="0" t="s">
+        <x:v>153</x:v>
+      </x:c>
       <x:c r="B52" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="C52" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>155</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:3">
+      <x:c r="A53" s="0" t="s">
+        <x:v>156</x:v>
+      </x:c>
       <x:c r="B53" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="C53" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:3">
+      <x:c r="A54" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
       <x:c r="B54" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="C54" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>161</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:3">
+      <x:c r="A55" s="0" t="s">
+        <x:v>162</x:v>
+      </x:c>
       <x:c r="B55" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="C55" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:3">
+      <x:c r="A56" s="0" t="s">
+        <x:v>165</x:v>
+      </x:c>
       <x:c r="B56" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="C56" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>167</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:3">
+      <x:c r="A57" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
       <x:c r="B57" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="C57" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:3">
+      <x:c r="A58" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
       <x:c r="B58" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="C58" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>173</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:3">
+      <x:c r="A59" s="0" t="s">
+        <x:v>174</x:v>
+      </x:c>
       <x:c r="B59" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="C59" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>176</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:3">
+      <x:c r="A60" s="0" t="s">
+        <x:v>177</x:v>
+      </x:c>
       <x:c r="B60" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="C60" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:3">
+      <x:c r="A61" s="0" t="s">
+        <x:v>180</x:v>
+      </x:c>
       <x:c r="B61" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C61" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:3">
+      <x:c r="A62" s="0" t="s">
+        <x:v>183</x:v>
+      </x:c>
       <x:c r="B62" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="C62" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:3">
+      <x:c r="A63" s="0" t="s">
+        <x:v>186</x:v>
+      </x:c>
       <x:c r="B63" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="C63" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>188</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:3">
+      <x:c r="A64" s="0" t="s">
+        <x:v>189</x:v>
+      </x:c>
       <x:c r="B64" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="C64" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>191</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:3">
+      <x:c r="A65" s="0" t="s">
+        <x:v>192</x:v>
+      </x:c>
       <x:c r="B65" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="C65" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>194</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:3">
+      <x:c r="A66" s="0" t="s">
+        <x:v>195</x:v>
+      </x:c>
       <x:c r="B66" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="C66" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>197</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:3">
+      <x:c r="A67" s="0" t="s">
+        <x:v>198</x:v>
+      </x:c>
       <x:c r="B67" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="C67" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>200</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:3">
+      <x:c r="A68" s="0" t="s">
+        <x:v>201</x:v>
+      </x:c>
       <x:c r="B68" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="C68" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>203</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:3">
+      <x:c r="A69" s="0" t="s">
+        <x:v>204</x:v>
+      </x:c>
       <x:c r="B69" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="C69" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>206</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:3">
+      <x:c r="A70" s="0" t="s">
+        <x:v>207</x:v>
+      </x:c>
       <x:c r="B70" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="C70" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>209</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:3">
+      <x:c r="A71" s="0" t="s">
+        <x:v>210</x:v>
+      </x:c>
       <x:c r="B71" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="C71" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>212</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:3">
+      <x:c r="A72" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
       <x:c r="B72" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="C72" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>215</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:3">
+      <x:c r="A73" s="0" t="s">
+        <x:v>216</x:v>
+      </x:c>
       <x:c r="B73" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="C73" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>218</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:3">
+      <x:c r="A74" s="0" t="s">
+        <x:v>219</x:v>
+      </x:c>
       <x:c r="B74" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="C74" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>221</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:3">
+      <x:c r="A75" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
       <x:c r="B75" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="C75" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>224</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:3">
+      <x:c r="A76" s="0" t="s">
+        <x:v>225</x:v>
+      </x:c>
       <x:c r="B76" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="C76" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>227</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:3">
+      <x:c r="A77" s="0" t="s">
+        <x:v>228</x:v>
+      </x:c>
       <x:c r="B77" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="C77" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>230</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:3">
+      <x:c r="A78" s="0" t="s">
+        <x:v>231</x:v>
+      </x:c>
       <x:c r="B78" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="C78" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:3">
+      <x:c r="A79" s="0" t="s">
+        <x:v>234</x:v>
+      </x:c>
       <x:c r="B79" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="C79" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>236</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:3">
+      <x:c r="A80" s="0" t="s">
+        <x:v>237</x:v>
+      </x:c>
       <x:c r="B80" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="C80" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>239</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:3">
+      <x:c r="A81" s="0" t="s">
+        <x:v>240</x:v>
+      </x:c>
       <x:c r="B81" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C81" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>242</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:3">
+      <x:c r="A82" s="0" t="s">
+        <x:v>243</x:v>
+      </x:c>
       <x:c r="B82" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="C82" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>245</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:3">
+      <x:c r="A83" s="0" t="s">
+        <x:v>246</x:v>
+      </x:c>
       <x:c r="B83" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="C83" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>248</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:3">
+      <x:c r="A84" s="0" t="s">
+        <x:v>249</x:v>
+      </x:c>
       <x:c r="B84" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="C84" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>251</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:3">
+      <x:c r="A85" s="0" t="s">
+        <x:v>252</x:v>
+      </x:c>
       <x:c r="B85" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="C85" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>254</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:3">
+      <x:c r="A86" s="0" t="s">
+        <x:v>255</x:v>
+      </x:c>
       <x:c r="B86" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="C86" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:3">
+      <x:c r="A87" s="0" t="s">
+        <x:v>258</x:v>
+      </x:c>
       <x:c r="B87" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="C87" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>260</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:3">
+      <x:c r="A88" s="0" t="s">
+        <x:v>261</x:v>
+      </x:c>
       <x:c r="B88" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="C88" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>263</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:3">
+      <x:c r="A89" s="0" t="s">
+        <x:v>264</x:v>
+      </x:c>
       <x:c r="B89" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="C89" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>266</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:3">
+      <x:c r="A90" s="0" t="s">
+        <x:v>267</x:v>
+      </x:c>
       <x:c r="B90" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="C90" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>269</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="1:3">
+      <x:c r="A91" s="0" t="s">
+        <x:v>270</x:v>
+      </x:c>
       <x:c r="B91" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="C91" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>272</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:3">
+      <x:c r="A92" s="0" t="s">
+        <x:v>273</x:v>
+      </x:c>
       <x:c r="B92" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="C92" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>275</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:3">
+      <x:c r="A93" s="0" t="s">
+        <x:v>276</x:v>
+      </x:c>
       <x:c r="B93" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="C93" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>278</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:3">
+      <x:c r="A94" s="0" t="s">
+        <x:v>279</x:v>
+      </x:c>
       <x:c r="B94" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="C94" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>281</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:3">
+      <x:c r="A95" s="0" t="s">
+        <x:v>282</x:v>
+      </x:c>
       <x:c r="B95" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="C95" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>284</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:3">
+      <x:c r="A96" s="0" t="s">
+        <x:v>285</x:v>
+      </x:c>
       <x:c r="B96" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="C96" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>287</x:v>
       </x:c>
     </x:row>
     <x:row r="97" spans="1:3">
+      <x:c r="A97" s="0" t="s">
+        <x:v>288</x:v>
+      </x:c>
       <x:c r="B97" s="0" t="s">
-        <x:v>193</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="C97" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>290</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:3">
+      <x:c r="A98" s="0" t="s">
+        <x:v>291</x:v>
+      </x:c>
       <x:c r="B98" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="C98" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>293</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:3">
+      <x:c r="A99" s="0" t="s">
+        <x:v>294</x:v>
+      </x:c>
       <x:c r="B99" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="C99" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>296</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:3">
+      <x:c r="A100" s="0" t="s">
+        <x:v>297</x:v>
+      </x:c>
       <x:c r="B100" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="C100" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>299</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:3">
+      <x:c r="A101" s="0" t="s">
+        <x:v>300</x:v>
+      </x:c>
       <x:c r="B101" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="C101" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>302</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:3">
+      <x:c r="A102" s="0" t="s">
+        <x:v>303</x:v>
+      </x:c>
       <x:c r="B102" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="C102" s="0" t="s">
-        <x:v>204</x:v>
+        <x:v>305</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:3">
+      <x:c r="A103" s="0" t="s">
+        <x:v>306</x:v>
+      </x:c>
       <x:c r="B103" s="0" t="s">
-        <x:v>205</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="C103" s="0" t="s">
-        <x:v>206</x:v>
+        <x:v>308</x:v>
       </x:c>
     </x:row>
     <x:row r="104" spans="1:3">
+      <x:c r="A104" s="0" t="s">
+        <x:v>309</x:v>
+      </x:c>
       <x:c r="B104" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="C104" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>311</x:v>
       </x:c>
     </x:row>
     <x:row r="105" spans="1:3">
+      <x:c r="A105" s="0" t="s">
+        <x:v>312</x:v>
+      </x:c>
       <x:c r="B105" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="C105" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>314</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="1:3">
+      <x:c r="A106" s="0" t="s">
+        <x:v>315</x:v>
+      </x:c>
       <x:c r="B106" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="C106" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>317</x:v>
       </x:c>
     </x:row>
     <x:row r="107" spans="1:3">
+      <x:c r="A107" s="0" t="s">
+        <x:v>318</x:v>
+      </x:c>
       <x:c r="B107" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="C107" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>320</x:v>
       </x:c>
     </x:row>
     <x:row r="108" spans="1:3">
+      <x:c r="A108" s="0" t="s">
+        <x:v>321</x:v>
+      </x:c>
       <x:c r="B108" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="C108" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>323</x:v>
       </x:c>
     </x:row>
     <x:row r="109" spans="1:3">
+      <x:c r="A109" s="0" t="s">
+        <x:v>324</x:v>
+      </x:c>
       <x:c r="B109" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="C109" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>326</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="1:3">
+      <x:c r="A110" s="0" t="s">
+        <x:v>327</x:v>
+      </x:c>
       <x:c r="B110" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="C110" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>329</x:v>
       </x:c>
     </x:row>
     <x:row r="111" spans="1:3">
+      <x:c r="A111" s="0" t="s">
+        <x:v>330</x:v>
+      </x:c>
       <x:c r="B111" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="C111" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>332</x:v>
       </x:c>
     </x:row>
     <x:row r="112" spans="1:3">
+      <x:c r="A112" s="0" t="s">
+        <x:v>333</x:v>
+      </x:c>
       <x:c r="B112" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="C112" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>335</x:v>
       </x:c>
     </x:row>
     <x:row r="113" spans="1:3">
+      <x:c r="A113" s="0" t="s">
+        <x:v>336</x:v>
+      </x:c>
       <x:c r="B113" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="C113" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>338</x:v>
       </x:c>
     </x:row>
     <x:row r="114" spans="1:3">
+      <x:c r="A114" s="0" t="s">
+        <x:v>339</x:v>
+      </x:c>
       <x:c r="B114" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="C114" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>341</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:3">
+      <x:c r="A115" s="0" t="s">
+        <x:v>342</x:v>
+      </x:c>
       <x:c r="B115" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="C115" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>344</x:v>
       </x:c>
     </x:row>
     <x:row r="116" spans="1:3">
+      <x:c r="A116" s="0" t="s">
+        <x:v>345</x:v>
+      </x:c>
       <x:c r="B116" s="0" t="s">
-        <x:v>231</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="C116" s="0" t="s">
-        <x:v>232</x:v>
+        <x:v>347</x:v>
       </x:c>
     </x:row>
     <x:row r="117" spans="1:3">
+      <x:c r="A117" s="0" t="s">
+        <x:v>348</x:v>
+      </x:c>
       <x:c r="B117" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="C117" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>350</x:v>
       </x:c>
     </x:row>
     <x:row r="118" spans="1:3">
+      <x:c r="A118" s="0" t="s">
+        <x:v>351</x:v>
+      </x:c>
       <x:c r="B118" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="C118" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>353</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:3">
+      <x:c r="A119" s="0" t="s">
+        <x:v>354</x:v>
+      </x:c>
       <x:c r="B119" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="C119" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>356</x:v>
       </x:c>
     </x:row>
     <x:row r="120" spans="1:3">
+      <x:c r="A120" s="0" t="s">
+        <x:v>357</x:v>
+      </x:c>
       <x:c r="B120" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="C120" s="0" t="s">
-        <x:v>240</x:v>
+        <x:v>359</x:v>
       </x:c>
     </x:row>
     <x:row r="121" spans="1:3">
+      <x:c r="A121" s="0" t="s">
+        <x:v>360</x:v>
+      </x:c>
       <x:c r="B121" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="C121" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>362</x:v>
       </x:c>
     </x:row>
     <x:row r="122" spans="1:3">
+      <x:c r="A122" s="0" t="s">
+        <x:v>363</x:v>
+      </x:c>
       <x:c r="B122" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="C122" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>365</x:v>
       </x:c>
     </x:row>
     <x:row r="123" spans="1:3">
+      <x:c r="A123" s="0" t="s">
+        <x:v>366</x:v>
+      </x:c>
       <x:c r="B123" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="C123" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>368</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="1:3">
+      <x:c r="A124" s="0" t="s">
+        <x:v>369</x:v>
+      </x:c>
       <x:c r="B124" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="C124" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>371</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:3">
+      <x:c r="A125" s="0" t="s">
+        <x:v>372</x:v>
+      </x:c>
       <x:c r="B125" s="0" t="s">
-        <x:v>249</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="C125" s="0" t="s">
-        <x:v>250</x:v>
+        <x:v>374</x:v>
       </x:c>
     </x:row>
     <x:row r="126" spans="1:3">
+      <x:c r="A126" s="0" t="s">
+        <x:v>375</x:v>
+      </x:c>
       <x:c r="B126" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="C126" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>377</x:v>
       </x:c>
     </x:row>
     <x:row r="127" spans="1:3">
+      <x:c r="A127" s="0" t="s">
+        <x:v>378</x:v>
+      </x:c>
       <x:c r="B127" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="C127" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>380</x:v>
       </x:c>
     </x:row>
     <x:row r="128" spans="1:3">
+      <x:c r="A128" s="0" t="s">
+        <x:v>381</x:v>
+      </x:c>
       <x:c r="B128" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="C128" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>383</x:v>
       </x:c>
     </x:row>
     <x:row r="129" spans="1:3">
+      <x:c r="A129" s="0" t="s">
+        <x:v>384</x:v>
+      </x:c>
       <x:c r="B129" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="C129" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>386</x:v>
       </x:c>
     </x:row>
     <x:row r="130" spans="1:3">
+      <x:c r="A130" s="0" t="s">
+        <x:v>387</x:v>
+      </x:c>
       <x:c r="B130" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="C130" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>389</x:v>
       </x:c>
     </x:row>
     <x:row r="131" spans="1:3">
+      <x:c r="A131" s="0" t="s">
+        <x:v>390</x:v>
+      </x:c>
       <x:c r="B131" s="0" t="s">
-        <x:v>261</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="C131" s="0" t="s">
-        <x:v>262</x:v>
+        <x:v>392</x:v>
       </x:c>
     </x:row>
     <x:row r="132" spans="1:3">
+      <x:c r="A132" s="0" t="s">
+        <x:v>393</x:v>
+      </x:c>
       <x:c r="B132" s="0" t="s">
-        <x:v>263</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="C132" s="0" t="s">
-        <x:v>264</x:v>
+        <x:v>395</x:v>
       </x:c>
     </x:row>
     <x:row r="133" spans="1:3">
+      <x:c r="A133" s="0" t="s">
+        <x:v>396</x:v>
+      </x:c>
       <x:c r="B133" s="0" t="s">
-        <x:v>265</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="C133" s="0" t="s">
-        <x:v>266</x:v>
+        <x:v>398</x:v>
       </x:c>
     </x:row>
     <x:row r="134" spans="1:3">
+      <x:c r="A134" s="0" t="s">
+        <x:v>399</x:v>
+      </x:c>
       <x:c r="B134" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="C134" s="0" t="s">
-        <x:v>268</x:v>
+        <x:v>401</x:v>
       </x:c>
     </x:row>
     <x:row r="135" spans="1:3">
+      <x:c r="A135" s="0" t="s">
+        <x:v>402</x:v>
+      </x:c>
       <x:c r="B135" s="0" t="s">
-        <x:v>269</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="C135" s="0" t="s">
-        <x:v>270</x:v>
+        <x:v>404</x:v>
       </x:c>
     </x:row>
     <x:row r="136" spans="1:3">
+      <x:c r="A136" s="0" t="s">
+        <x:v>405</x:v>
+      </x:c>
       <x:c r="B136" s="0" t="s">
-        <x:v>271</x:v>
+        <x:v>406</x:v>
       </x:c>
       <x:c r="C136" s="0" t="s">
-        <x:v>272</x:v>
+        <x:v>407</x:v>
       </x:c>
     </x:row>
     <x:row r="137" spans="1:3">
+      <x:c r="A137" s="0" t="s">
+        <x:v>408</x:v>
+      </x:c>
       <x:c r="B137" s="0" t="s">
-        <x:v>273</x:v>
+        <x:v>409</x:v>
       </x:c>
       <x:c r="C137" s="0" t="s">
-        <x:v>274</x:v>
+        <x:v>410</x:v>
       </x:c>
     </x:row>
     <x:row r="138" spans="1:3">
+      <x:c r="A138" s="0" t="s">
+        <x:v>411</x:v>
+      </x:c>
       <x:c r="B138" s="0" t="s">
-        <x:v>275</x:v>
+        <x:v>412</x:v>
       </x:c>
       <x:c r="C138" s="0" t="s">
-        <x:v>276</x:v>
+        <x:v>413</x:v>
       </x:c>
     </x:row>
     <x:row r="139" spans="1:3">
+      <x:c r="A139" s="0" t="s">
+        <x:v>414</x:v>
+      </x:c>
       <x:c r="B139" s="0" t="s">
-        <x:v>277</x:v>
+        <x:v>415</x:v>
       </x:c>
       <x:c r="C139" s="0" t="s">
-        <x:v>278</x:v>
+        <x:v>416</x:v>
       </x:c>
     </x:row>
     <x:row r="140" spans="1:3">
+      <x:c r="A140" s="0" t="s">
+        <x:v>417</x:v>
+      </x:c>
       <x:c r="B140" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="C140" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>419</x:v>
       </x:c>
     </x:row>
     <x:row r="141" spans="1:3">
+      <x:c r="A141" s="0" t="s">
+        <x:v>420</x:v>
+      </x:c>
       <x:c r="B141" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>421</x:v>
       </x:c>
       <x:c r="C141" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>422</x:v>
       </x:c>
     </x:row>
     <x:row r="142" spans="1:3">
+      <x:c r="A142" s="0" t="s">
+        <x:v>423</x:v>
+      </x:c>
       <x:c r="B142" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="C142" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>425</x:v>
       </x:c>
     </x:row>
     <x:row r="143" spans="1:3">
+      <x:c r="A143" s="0" t="s">
+        <x:v>426</x:v>
+      </x:c>
       <x:c r="B143" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="C143" s="0" t="s">
-        <x:v>286</x:v>
+        <x:v>428</x:v>
       </x:c>
     </x:row>
     <x:row r="144" spans="1:3">
+      <x:c r="A144" s="0" t="s">
+        <x:v>429</x:v>
+      </x:c>
       <x:c r="B144" s="0" t="s">
-        <x:v>287</x:v>
+        <x:v>430</x:v>
       </x:c>
       <x:c r="C144" s="0" t="s">
-        <x:v>288</x:v>
+        <x:v>431</x:v>
       </x:c>
     </x:row>
     <x:row r="145" spans="1:3">
+      <x:c r="A145" s="0" t="s">
+        <x:v>432</x:v>
+      </x:c>
       <x:c r="B145" s="0" t="s">
-        <x:v>289</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C145" s="0" t="s">
-        <x:v>290</x:v>
+        <x:v>434</x:v>
       </x:c>
     </x:row>
     <x:row r="146" spans="1:3">
+      <x:c r="A146" s="0" t="s">
+        <x:v>435</x:v>
+      </x:c>
       <x:c r="B146" s="0" t="s">
-        <x:v>291</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="C146" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>437</x:v>
       </x:c>
     </x:row>
     <x:row r="147" spans="1:3">
+      <x:c r="A147" s="0" t="s">
+        <x:v>438</x:v>
+      </x:c>
       <x:c r="B147" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>439</x:v>
       </x:c>
       <x:c r="C147" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>440</x:v>
       </x:c>
     </x:row>
     <x:row r="148" spans="1:3">
+      <x:c r="A148" s="0" t="s">
+        <x:v>441</x:v>
+      </x:c>
       <x:c r="B148" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>442</x:v>
       </x:c>
       <x:c r="C148" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>443</x:v>
       </x:c>
     </x:row>
     <x:row r="149" spans="1:3">
+      <x:c r="A149" s="0" t="s">
+        <x:v>444</x:v>
+      </x:c>
       <x:c r="B149" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>445</x:v>
       </x:c>
       <x:c r="C149" s="0" t="s">
-        <x:v>298</x:v>
+        <x:v>446</x:v>
       </x:c>
     </x:row>
     <x:row r="150" spans="1:3">
+      <x:c r="A150" s="0" t="s">
+        <x:v>447</x:v>
+      </x:c>
       <x:c r="B150" s="0" t="s">
-        <x:v>299</x:v>
+        <x:v>448</x:v>
       </x:c>
       <x:c r="C150" s="0" t="s">
-        <x:v>300</x:v>
+        <x:v>449</x:v>
       </x:c>
     </x:row>
     <x:row r="151" spans="1:3">
+      <x:c r="A151" s="0" t="s">
+        <x:v>450</x:v>
+      </x:c>
       <x:c r="B151" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="C151" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>452</x:v>
       </x:c>
     </x:row>
     <x:row r="152" spans="1:3">
+      <x:c r="A152" s="0" t="s">
+        <x:v>453</x:v>
+      </x:c>
       <x:c r="B152" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="C152" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>455</x:v>
       </x:c>
     </x:row>
     <x:row r="153" spans="1:3">
+      <x:c r="A153" s="0" t="s">
+        <x:v>456</x:v>
+      </x:c>
       <x:c r="B153" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="C153" s="0" t="s">
-        <x:v>306</x:v>
+        <x:v>458</x:v>
       </x:c>
     </x:row>
     <x:row r="154" spans="1:3">
+      <x:c r="A154" s="0" t="s">
+        <x:v>459</x:v>
+      </x:c>
       <x:c r="B154" s="0" t="s">
-        <x:v>307</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="C154" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>350</x:v>
       </x:c>
     </x:row>
     <x:row r="155" spans="1:3">
+      <x:c r="A155" s="0" t="s">
+        <x:v>461</x:v>
+      </x:c>
       <x:c r="B155" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="C155" s="0" t="s">
-        <x:v>309</x:v>
+        <x:v>463</x:v>
       </x:c>
     </x:row>
     <x:row r="156" spans="1:3">
+      <x:c r="A156" s="0" t="s">
+        <x:v>464</x:v>
+      </x:c>
       <x:c r="B156" s="0" t="s">
-        <x:v>310</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="C156" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>466</x:v>
       </x:c>
     </x:row>
     <x:row r="157" spans="1:3">
+      <x:c r="A157" s="0" t="s">
+        <x:v>467</x:v>
+      </x:c>
       <x:c r="B157" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="C157" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>469</x:v>
       </x:c>
     </x:row>
     <x:row r="158" spans="1:3">
+      <x:c r="A158" s="0" t="s">
+        <x:v>470</x:v>
+      </x:c>
       <x:c r="B158" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>471</x:v>
       </x:c>
       <x:c r="C158" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>472</x:v>
       </x:c>
     </x:row>
     <x:row r="159" spans="1:3">
+      <x:c r="A159" s="0" t="s">
+        <x:v>473</x:v>
+      </x:c>
       <x:c r="B159" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>474</x:v>
       </x:c>
       <x:c r="C159" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>475</x:v>
       </x:c>
     </x:row>
     <x:row r="160" spans="1:3">
+      <x:c r="A160" s="0" t="s">
+        <x:v>476</x:v>
+      </x:c>
       <x:c r="B160" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="C160" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>478</x:v>
       </x:c>
     </x:row>
     <x:row r="161" spans="1:3">
+      <x:c r="A161" s="0" t="s">
+        <x:v>479</x:v>
+      </x:c>
       <x:c r="B161" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>480</x:v>
       </x:c>
       <x:c r="C161" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>481</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -25,13 +25,13 @@
     <x:t>address</x:t>
   </x:si>
   <x:si>
-    <x:t>DD02111</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DAKI DINESH PURSHOTTAM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ROOM NO.4, JADHAV CHAWL, DEVI PADA ROAD,, MUMBAI- 400612</x:t>
+    <x:t>D02111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DEDHIA AVANI GIRISH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BHAKTI BHAVAN OPP WASAN, HOUSE, ROOM NO 10,  GRND FLOOR, MUMBAI- 400071</x:t>
   </x:si>
   <x:si>
     <x:t>S03967</x:t>
@@ -43,22 +43,22 @@
     <x:t>12, SHIV KRUPA, 1ST FLR.,, G.N.ROAD,,  HINDMATA, MUMBAI- 400014</x:t>
   </x:si>
   <x:si>
-    <x:t>VD02100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DHARAMSHI RAJASHREE MANTHAN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>502, SHRI SAI SAGAR CHS, 5TH FLOOR,  KHAREGAON, THANE- 400705</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VD02098</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DHARAMSHI SAMIR HUKUMCHAND</x:t>
-  </x:si>
-  <x:si>
-    <x:t>502, SRI SAI SAGAR BLDG, E/C3, KHARA GANO,, MUMBAI- </x:t>
+    <x:t>D02100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DEDHIA DAKSHA NAYAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RAOLI CAMP BMC BLDG 31, ROOM NO 9,  SARDAR NAGAR 2, MUMBAI- 400022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D02098</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DEDHIA NAYAN THAKARSHI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31/9, BMC BLDG.,, SARDAR NAGAR NO 2,  RAWLO CAMP, KOLIWADA, MUMBAI- 400022</x:t>
   </x:si>
   <x:si>
     <x:t>B00382</x:t>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33" count="33">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108" count="108">
   <x:si>
     <x:t>donorid</x:t>
   </x:si>
@@ -25,94 +25,319 @@
     <x:t>address</x:t>
   </x:si>
   <x:si>
-    <x:t>D02111</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DEDHIA AVANI GIRISH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BHAKTI BHAVAN OPP WASAN, HOUSE, ROOM NO 10,  GRND FLOOR, MUMBAI- 400071</x:t>
-  </x:si>
-  <x:si>
-    <x:t>S03967</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SAVLA MISHEL PRAVIN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12, SHIV KRUPA, 1ST FLR.,, G.N.ROAD,,  HINDMATA, MUMBAI- 400014</x:t>
-  </x:si>
-  <x:si>
-    <x:t>D02100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DEDHIA DAKSHA NAYAN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RAOLI CAMP BMC BLDG 31, ROOM NO 9,  SARDAR NAGAR 2, MUMBAI- 400022</x:t>
-  </x:si>
-  <x:si>
-    <x:t>D02098</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DEDHIA NAYAN THAKARSHI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31/9, BMC BLDG.,, SARDAR NAGAR NO 2,  RAWLO CAMP, KOLIWADA, MUMBAI- 400022</x:t>
-  </x:si>
-  <x:si>
-    <x:t>B00382</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BHANDARI SUPRIYA DATTARAM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>401, VRUNDAVAN CHHAYA, BHRAMAN SOC, NAVPADA,, MUMBAI- 400605</x:t>
-  </x:si>
-  <x:si>
-    <x:t>D01646</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DEDHIA KAJAL VICKY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16/4, AZAD NAGAR,, R.A.K.ROAD,,, MUMBAI- 400031</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R00333</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ROY LEENA ATUL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>144 D KUTCHI LOHANA BLDG, 1ST FL, R.NO.07, D, SANE GURUJI RD, CHINCHPOKLI,, MUMBAI- 400011</x:t>
-  </x:si>
-  <x:si>
-    <x:t>J01185</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JAIN SIMPLE CHINTAN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VEER MAHAL, 11TH FLR, # 1109, OPP BHARAT MATA TALKIES,, MUMBAI- 400012</x:t>
-  </x:si>
-  <x:si>
-    <x:t>S00767</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SAVLA PRITI JAYESH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SHREE GANESH MARKETING,, T J ROAD., MUMBAI- 400101</x:t>
-  </x:si>
-  <x:si>
-    <x:t>S02817</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SAVLA ASHWIN RAGHAVJI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>M/602, NAVNEET NAGAR,, , THANE- 400201</x:t>
+    <x:t>K00727</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KOTHARI SONAL NEHAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C-613, VIKAS TOWER,, AMBOLI RAILWAY CROSSING,,, MUMBAI- 400069</x:t>
+  </x:si>
+  <x:si>
+    <x:t>K01036</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KOTHARI NEHAL MADHUBHAI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C/613, VIKAS TOWER,, NEAR AMBOLI PHATAK,, MUMBAI- 400069</x:t>
+  </x:si>
+  <x:si>
+    <x:t>XM0022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GOGRI DIPESH SHANTILAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>601, SHRI DWARKADEESH, H.K.ROAD,,, MUMBAI- 400067</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C01463</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHHALLANI DHIRENDRA SHANTILAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1, MANGAL KUNJ,, RD NO 4,,, MUMBAI- 400066</x:t>
+  </x:si>
+  <x:si>
+    <x:t>S03493</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAVLA SASHIKANT KANJI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A/56,ROOM.NO-1, TAJ APTS,, PUSHPA PARK,RD.NO-4,, MUMBAI- 400097</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C01361</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHHEDA TUSHAR DINESH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25 TH KADAMBARI BLDG, 2ND SIR M V ROAD,, MUMBAI- 400069</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C01221</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHHEDA NIKUNJ VASANT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>204, SILVER PARK, 2ND FLR,, TULLING ROAD., THANE- 401209</x:t>
+  </x:si>
+  <x:si>
+    <x:t>S04118</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SHAH KARAN CHETAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>701, KARISHMA , POISAR,, BHATT LANE,,, MUMBAI- 400067</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C01145</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHHEDA PRATIK JAYANT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>F/220, SHREEPAL COMPLEX, MAHESH PARK,TULINJ RD,, MUMBAI- 421004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>P01737</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PARMAR RAJESH MANJIBHAI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C/404, ROOM - 10, SAI BABA NIWAS,, OPP. SARASWATI SCHOOL, THANE- 401209</x:t>
+  </x:si>
+  <x:si>
+    <x:t>S05150</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SHARMA CHANDAN BHARAT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ROOM -2, AMBEDKAR CHAWL,, DATTA MANDIR, VAKOLA,, MUMBAI- 400055</x:t>
+  </x:si>
+  <x:si>
+    <x:t>S04028</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAVLI HARDIK MAHENDRA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B 30, M &amp; M COLONY, SHREE KRISHNA NAGAR,, MUMBAI- 400066</x:t>
+  </x:si>
+  <x:si>
+    <x:t>T00455</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TRIPATHI MANOJ JAGMOHAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C-302, D/11 COMPLEX,, NR. GAURAV COMPLEX,, MUMBAI- 401107</x:t>
+  </x:si>
+  <x:si>
+    <x:t>G02386</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GOGRI RUSHABH NAVINCHANDRA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R-23,OM SHIV ASHISH,, ASHOK NAGAR,,, MUMBAI- 400101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N00347</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NAGDA FENIL MAHESH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>102, KALPTARU APTS.,, LOTUS AREA, ACHOLE ROAD,, THANE- 421009</x:t>
+  </x:si>
+  <x:si>
+    <x:t>S04481</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SINGH SHYAMBAHADUR </x:t>
+  </x:si>
+  <x:si>
+    <x:t>R NO 01 LAXMAN BIHARI CHAWL, BEHIND BHADARAN NAGAR NO 2,, MUMBAI- 400064</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C01502</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHHEDA MEHUL DEEPAK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/979, BHARASKAR NAGAR CHS,, TATA POWER HOUSE, MAGATHANE, MUMBAI- 400066</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C01349</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHHEDA MILIND VINOD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C/501, SURBHI COMPLEX, 5TH FLR, M.G.X ROAD NO.1,,, MUMBAI- 400067</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C01824</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHHEDA ANUJA MEHUL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/979, BHAVASKAR NAGAR CHS,, TATA POWER HOUSE, MAGHATHANE,, MUMBAI- 400066</x:t>
+  </x:si>
+  <x:si>
+    <x:t>S03195</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAVLA BHARAT MORARJI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3A/30, SANTA CHS, 3RD FLR, PMGP COLONY,,, MUMBAI- 400093</x:t>
+  </x:si>
+  <x:si>
+    <x:t>V02171</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VIRA VAIBHAV PREMCHAND</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A-7, SUMATINAGAR, NEAR SHOPPERS STOP,  S V RD, MUMBAI- 400067</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MD02102</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DOSHI PUSHPAK LALITKUMAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>276/20, SITA CHAWL,, KURAR VILLAGE,,, MUMBAI- 400097</x:t>
+  </x:si>
+  <x:si>
+    <x:t>J01064</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JAIN JAYSHREE SANJAY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ROOM: 11, TRIVEDI NIWAS,, RASHTRIYA SHALA ROAD,,, MUMBAI- 400056</x:t>
+  </x:si>
+  <x:si>
+    <x:t>G03796</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GOSWAMI RAJENDRA AMRATGIRI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B-301,  MANJULU PARESH CHS, PRABHAKAR MAHTRE ROAD,, THANE- 401105</x:t>
+  </x:si>
+  <x:si>
+    <x:t>L00178</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LALAN CHINTAN DINESH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8/D, NEELYOG TOWER,, DHANJI WADI,,, MUMBAI- 400097</x:t>
+  </x:si>
+  <x:si>
+    <x:t>L00298</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LALAN JINAL CHINTAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D-1101, NEEL YOG TOWER,, undefined, MUMBAI- 400097</x:t>
+  </x:si>
+  <x:si>
+    <x:t>L00210</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LALAN KALPESH DINESH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11/01,D-WING,NEELYOG TOWER,, DHANJIWADI,,, MUMBAI- 400097</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A00245</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AGARWAL BHAVESH HARISH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B-704,RADHAKUNJ BLDG,, 7TH FLOOR,NEVATIA ROAD,, MUMBAI- 400097</x:t>
+  </x:si>
+  <x:si>
+    <x:t>S05151</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SHAH BHAVESH CHUNILAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>V-2/204, VINAY NAGAR,, OPP. PLEASANT PARK,, THANE- 401107</x:t>
+  </x:si>
+  <x:si>
+    <x:t>J00891</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JAIN LALITKUMAR BHARIMAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B-208, SHAMBU SADAN,, DEVCHAND NGR, 60 FT RD,, THANE- 401101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C01248</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHHEDA BIKESH JADHAVJI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ROOM NO-3, MANGESH KRUPA SOCIETY, NEAR DATTMANDIR ROAD, MAHAVIR NAGAR, MUMBAI- 400067</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C01458</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHHEDA BIJAL BIKESH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ROOM NO-3, MANGESH KRUPA SOCIETY,, NEAR DATTMANDIR ROAD,, MUMBAI- 400067</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D01315</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DEDHIA MUKESH HIRJI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>604, ACHARYA ASHISH APT.,, HARDEVIBAI SOCIETY,,  CAVES ROAD,, MUMBAI- 400060</x:t>
+  </x:si>
+  <x:si>
+    <x:t>S05152</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SHAH ASHISH JAYKUMAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>701, ADARSH TOWER, ADARSH VIHAR COMPLEX,, OFF MARVE ROAD,, MUMBAI- 400064</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D00621</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DEDHIA ROHIT BHAVANJI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>702, SIDDHI APTS., NR. MITTAL, COLLEGE, NAHAR NGR,MALAD(W),MU,, MUMBAI- 400064</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -596,6 +821,281 @@
         <x:v>32</x:v>
       </x:c>
     </x:row>
+    <x:row r="12" spans="1:3">
+      <x:c r="A12" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:3">
+      <x:c r="A13" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:3">
+      <x:c r="A14" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:3">
+      <x:c r="A15" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:3">
+      <x:c r="A16" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:3">
+      <x:c r="A17" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:3">
+      <x:c r="A18" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:3">
+      <x:c r="A19" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:3">
+      <x:c r="A20" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:3">
+      <x:c r="A21" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:3">
+      <x:c r="A22" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:3">
+      <x:c r="A23" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:3">
+      <x:c r="A24" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:3">
+      <x:c r="A25" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:3">
+      <x:c r="A26" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:3">
+      <x:c r="A27" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:3">
+      <x:c r="A28" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:3">
+      <x:c r="A29" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:3">
+      <x:c r="A30" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:3">
+      <x:c r="A31" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:3">
+      <x:c r="A32" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:3">
+      <x:c r="A33" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:3">
+      <x:c r="A34" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:3">
+      <x:c r="A35" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:3">
+      <x:c r="A36" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57" count="57">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="163" count="163">
   <x:si>
     <x:t>donorid</x:t>
   </x:si>
@@ -34,157 +34,475 @@
     <x:t>pincode</x:t>
   </x:si>
   <x:si>
-    <x:t>D02111</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DEDHIA AVANI GIRISH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BHAKTI BHAVAN OPP WASAN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HOUSE, ROOM NO 10,  GRND FLOOR</x:t>
+    <x:t>K00727</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KOTHARI SONAL NEHAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C-613, VIKAS TOWER,</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AMBOLI RAILWAY CROSSING,,</x:t>
   </x:si>
   <x:si>
     <x:t>MUMBAI</x:t>
   </x:si>
   <x:si>
-    <x:t>400071</x:t>
-  </x:si>
-  <x:si>
-    <x:t>S03967</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SAVLA MISHEL PRAVIN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12, SHIV KRUPA, 1ST FLR.,</x:t>
-  </x:si>
-  <x:si>
-    <x:t>G.N.ROAD,,  HINDMATA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>400014</x:t>
-  </x:si>
-  <x:si>
-    <x:t>D02100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DEDHIA DAKSHA NAYAN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RAOLI CAMP BMC BLDG 31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ROOM NO 9,  SARDAR NAGAR 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>400022</x:t>
-  </x:si>
-  <x:si>
-    <x:t>D02098</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DEDHIA NAYAN THAKARSHI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31/9, BMC BLDG.,</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SARDAR NAGAR NO 2,  RAWLO CAMP, KOLIWADA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>B00382</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BHANDARI SUPRIYA DATTARAM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>401, VRUNDAVAN CHHAYA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BHRAMAN SOC, NAVPADA,</x:t>
-  </x:si>
-  <x:si>
-    <x:t>400605</x:t>
-  </x:si>
-  <x:si>
-    <x:t>D01646</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DEDHIA KAJAL VICKY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16/4, AZAD NAGAR,</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R.A.K.ROAD,,</x:t>
-  </x:si>
-  <x:si>
-    <x:t>400031</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R00333</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ROY LEENA ATUL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>144 D KUTCHI LOHANA BLDG, 1ST FL, R.NO.07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>D, SANE GURUJI RD, CHINCHPOKLI,</x:t>
-  </x:si>
-  <x:si>
-    <x:t>400011</x:t>
-  </x:si>
-  <x:si>
-    <x:t>J01185</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JAIN SIMPLE CHINTAN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VEER MAHAL, 11TH FLR, # 1109</x:t>
-  </x:si>
-  <x:si>
-    <x:t>OPP BHARAT MATA TALKIES,</x:t>
-  </x:si>
-  <x:si>
-    <x:t>400012</x:t>
-  </x:si>
-  <x:si>
-    <x:t>S00767</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SAVLA PRITI JAYESH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SHREE GANESH MARKETING,</x:t>
-  </x:si>
-  <x:si>
-    <x:t>T J ROAD.</x:t>
+    <x:t>400069</x:t>
+  </x:si>
+  <x:si>
+    <x:t>K01036</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KOTHARI NEHAL MADHUBHAI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C/613, VIKAS TOWER,</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NEAR AMBOLI PHATAK,</x:t>
+  </x:si>
+  <x:si>
+    <x:t>XM0022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GOGRI DIPESH SHANTILAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>601, SHRI DWARKADEESH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>H.K.ROAD,,</x:t>
+  </x:si>
+  <x:si>
+    <x:t>400067</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C01463</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHHALLANI DHIRENDRA SHANTILAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1, MANGAL KUNJ,</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RD NO 4,,</x:t>
+  </x:si>
+  <x:si>
+    <x:t>400066</x:t>
+  </x:si>
+  <x:si>
+    <x:t>S03493</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAVLA SASHIKANT KANJI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A/56,ROOM.NO-1, TAJ APTS,</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PUSHPA PARK,RD.NO-4,</x:t>
+  </x:si>
+  <x:si>
+    <x:t>400097</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C01361</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHHEDA TUSHAR DINESH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25 TH KADAMBARI BLDG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2ND SIR M V ROAD,</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C01221</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHHEDA NIKUNJ VASANT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>204, SILVER PARK, 2ND FLR,</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TULLING ROAD.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>THANE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>401209</x:t>
+  </x:si>
+  <x:si>
+    <x:t>S04118</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SHAH KARAN CHETAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>701, KARISHMA , POISAR,</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BHATT LANE,,</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C01145</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHHEDA PRATIK JAYANT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>F/220, SHREEPAL COMPLEX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MAHESH PARK,TULINJ RD,</x:t>
+  </x:si>
+  <x:si>
+    <x:t>421004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>P01737</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PARMAR RAJESH MANJIBHAI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C/404, ROOM - 10, SAI BABA NIWAS,</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OPP. SARASWATI SCHOOL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>S05150</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SHARMA CHANDAN BHARAT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ROOM -2, AMBEDKAR CHAWL,</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DATTA MANDIR, VAKOLA,</x:t>
+  </x:si>
+  <x:si>
+    <x:t>400055</x:t>
+  </x:si>
+  <x:si>
+    <x:t>S04028</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAVLI HARDIK MAHENDRA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B 30, M &amp; M COLONY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SHREE KRISHNA NAGAR,</x:t>
+  </x:si>
+  <x:si>
+    <x:t>T00455</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TRIPATHI MANOJ JAGMOHAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C-302, D/11 COMPLEX,</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NR. GAURAV COMPLEX,</x:t>
+  </x:si>
+  <x:si>
+    <x:t>401107</x:t>
+  </x:si>
+  <x:si>
+    <x:t>G02386</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GOGRI RUSHABH NAVINCHANDRA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R-23,OM SHIV ASHISH,</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ASHOK NAGAR,,</x:t>
   </x:si>
   <x:si>
     <x:t>400101</x:t>
   </x:si>
   <x:si>
-    <x:t>S02817</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SAVLA ASHWIN RAGHAVJI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>M/602, NAVNEET NAGAR,</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>THANE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>400201</x:t>
+    <x:t>N00347</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NAGDA FENIL MAHESH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>102, KALPTARU APTS.,</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LOTUS AREA, ACHOLE ROAD,</x:t>
+  </x:si>
+  <x:si>
+    <x:t>421009</x:t>
+  </x:si>
+  <x:si>
+    <x:t>S04481</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SINGH SHYAMBAHADUR </x:t>
+  </x:si>
+  <x:si>
+    <x:t>R NO 01 LAXMAN BIHARI CHAWL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BEHIND BHADARAN NAGAR NO 2,</x:t>
+  </x:si>
+  <x:si>
+    <x:t>400064</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C01502</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHHEDA MEHUL DEEPAK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/979, BHARASKAR NAGAR CHS,</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TATA POWER HOUSE, MAGATHANE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C01349</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHHEDA MILIND VINOD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C/501, SURBHI COMPLEX, 5TH FLR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M.G.X ROAD NO.1,,</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C01824</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHHEDA ANUJA MEHUL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/979, BHAVASKAR NAGAR CHS,</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TATA POWER HOUSE, MAGHATHANE,</x:t>
+  </x:si>
+  <x:si>
+    <x:t>S03195</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAVLA BHARAT MORARJI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3A/30, SANTA CHS, 3RD FLR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PMGP COLONY,,</x:t>
+  </x:si>
+  <x:si>
+    <x:t>400093</x:t>
+  </x:si>
+  <x:si>
+    <x:t>V02171</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VIRA VAIBHAV PREMCHAND</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A-7, SUMATINAGAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NEAR SHOPPERS STOP,  S V RD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MD02102</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DOSHI PUSHPAK LALITKUMAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>276/20, SITA CHAWL,</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KURAR VILLAGE,,</x:t>
+  </x:si>
+  <x:si>
+    <x:t>J01064</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JAIN JAYSHREE SANJAY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ROOM: 11, TRIVEDI NIWAS,</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RASHTRIYA SHALA ROAD,,</x:t>
+  </x:si>
+  <x:si>
+    <x:t>400056</x:t>
+  </x:si>
+  <x:si>
+    <x:t>G03796</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GOSWAMI RAJENDRA AMRATGIRI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B-301,  MANJULU PARESH CHS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PRABHAKAR MAHTRE ROAD,</x:t>
+  </x:si>
+  <x:si>
+    <x:t>401105</x:t>
+  </x:si>
+  <x:si>
+    <x:t>L00178</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LALAN CHINTAN DINESH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8/D, NEELYOG TOWER,</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DHANJI WADI,,</x:t>
+  </x:si>
+  <x:si>
+    <x:t>L00298</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LALAN JINAL CHINTAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D-1101, NEEL YOG TOWER,</x:t>
+  </x:si>
+  <x:si>
+    <x:t>L00210</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LALAN KALPESH DINESH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11/01,D-WING,NEELYOG TOWER,</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DHANJIWADI,,</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A00245</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AGARWAL BHAVESH HARISH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B-704,RADHAKUNJ BLDG,</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7TH FLOOR,NEVATIA ROAD,</x:t>
+  </x:si>
+  <x:si>
+    <x:t>S05151</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SHAH BHAVESH CHUNILAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>V-2/204, VINAY NAGAR,</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OPP. PLEASANT PARK,</x:t>
+  </x:si>
+  <x:si>
+    <x:t>J00891</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JAIN LALITKUMAR BHARIMAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B-208, SHAMBU SADAN,</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DEVCHAND NGR, 60 FT RD,</x:t>
+  </x:si>
+  <x:si>
+    <x:t>401101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C01248</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHHEDA BIKESH JADHAVJI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ROOM NO-3, MANGESH KRUPA SOCIETY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NEAR DATTMANDIR ROAD, MAHAVIR NAGAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C01458</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHHEDA BIJAL BIKESH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ROOM NO-3, MANGESH KRUPA SOCIETY,</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NEAR DATTMANDIR ROAD,</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D01315</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DEDHIA MUKESH HIRJI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>604, ACHARYA ASHISH APT.,</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HARDEVIBAI SOCIETY,,  CAVES ROAD,</x:t>
+  </x:si>
+  <x:si>
+    <x:t>400060</x:t>
+  </x:si>
+  <x:si>
+    <x:t>S05152</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SHAH ASHISH JAYKUMAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>701, ADARSH TOWER, ADARSH VIHAR COMPLEX,</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OFF MARVE ROAD,</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D00621</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DEDHIA ROHIT BHAVANJI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>702, SIDDHI APTS., NR. MITTAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>COLLEGE, NAHAR NGR,MALAD(W),MU,</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -604,47 +922,47 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
       <x:c r="A4" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s">
+      <x:c r="C4" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="s">
+      <x:c r="D4" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="D4" s="0" t="s">
+      <x:c r="E4" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
         <x:v>20</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F4" s="0" t="s">
-        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="s">
+      <x:c r="C5" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="s">
+      <x:c r="D5" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="D5" s="0" t="s">
+      <x:c r="E5" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
         <x:v>25</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
@@ -684,24 +1002,24 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="B8" s="0" t="s">
+      <x:c r="C8" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C8" s="0" t="s">
+      <x:c r="D8" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="D8" s="0" t="s">
+      <x:c r="E8" s="0" t="s">
         <x:v>39</x:v>
-      </x:c>
-      <x:c r="E8" s="0" t="s">
-        <x:v>10</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
         <x:v>40</x:v>
@@ -724,47 +1042,544 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="B10" s="0" t="s">
+      <x:c r="C10" s="0" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="C10" s="0" t="s">
+      <x:c r="D10" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="D10" s="0" t="s">
+      <x:c r="E10" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
         <x:v>49</x:v>
-      </x:c>
-      <x:c r="E10" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F10" s="0" t="s">
-        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="A11" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="B11" s="0" t="s">
+      <x:c r="C11" s="0" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="C11" s="0" t="s">
+      <x:c r="D11" s="0" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="D11" s="0" t="s">
+      <x:c r="E11" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:6">
+      <x:c r="A12" s="0" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="E11" s="0" t="s">
+      <x:c r="B12" s="0" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="F11" s="0" t="s">
+      <x:c r="C12" s="0" t="s">
         <x:v>56</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:6">
+      <x:c r="A13" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:6">
+      <x:c r="A14" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:6">
+      <x:c r="A15" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:6">
+      <x:c r="A16" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:6">
+      <x:c r="A17" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:6">
+      <x:c r="A18" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:6">
+      <x:c r="A19" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F19" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:6">
+      <x:c r="A20" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F20" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:6">
+      <x:c r="A21" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="E21" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F21" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:6">
+      <x:c r="A22" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F22" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:6">
+      <x:c r="A23" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="E23" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F23" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:6">
+      <x:c r="A24" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="E24" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F24" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:6">
+      <x:c r="A25" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="E25" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="F25" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:6">
+      <x:c r="A26" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="E26" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F26" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:6">
+      <x:c r="A27" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="E27" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F27" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:6">
+      <x:c r="A28" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="E28" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F28" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:6">
+      <x:c r="A29" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="E29" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F29" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:6">
+      <x:c r="A30" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="E30" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="F30" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:6">
+      <x:c r="A31" s="0" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="E31" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="F31" s="0" t="s">
+        <x:v>141</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:6">
+      <x:c r="A32" s="0" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="E32" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F32" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:6">
+      <x:c r="A33" s="0" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="E33" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F33" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:6">
+      <x:c r="A34" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="E34" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F34" s="0" t="s">
+        <x:v>154</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:6">
+      <x:c r="A35" s="0" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="E35" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F35" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:6">
+      <x:c r="A36" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="E36" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F36" s="0" t="s">
+        <x:v>82</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
